--- a/pe_sample/SWT301-FINAL-PE-template_ANSWER.xlsx
+++ b/pe_sample/SWT301-FINAL-PE-template_ANSWER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Q1_Unit test-case_Helper" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="212">
   <si>
     <t>Function Code</t>
   </si>
@@ -551,9 +551,6 @@
   </si>
   <si>
     <t>login unsuccessfully &amp; alert empty fields</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>login unsuccessfully &amp; suggest resetting password &amp; accumulate failed attempts</t>
@@ -822,9 +819,6 @@
     </r>
   </si>
   <si>
-    <t>course</t>
-  </si>
-  <si>
     <t>start date</t>
   </si>
   <si>
@@ -840,30 +834,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>save button</t>
-  </si>
-  <si>
-    <t>cancel button</t>
-  </si>
-  <si>
-    <t>create successfully</t>
-  </si>
-  <si>
-    <t>create unsuccessfully</t>
-  </si>
-  <si>
-    <t>noti and red alert invalid fields</t>
-  </si>
-  <si>
-    <t>noti and red alert the empty fields</t>
-  </si>
-  <si>
-    <t>back to class list</t>
-  </si>
-  <si>
-    <t>CREATE CLASS WITH ALL VALID FIELDS</t>
-  </si>
-  <si>
     <t>USERMGT.01</t>
   </si>
   <si>
@@ -1090,6 +1060,42 @@
   </si>
   <si>
     <t>1111111111</t>
+  </si>
+  <si>
+    <t>course name</t>
+  </si>
+  <si>
+    <t>[save] button</t>
+  </si>
+  <si>
+    <t>[cancel] button</t>
+  </si>
+  <si>
+    <t>create class successfully</t>
+  </si>
+  <si>
+    <t>create class unsuccessfully</t>
+  </si>
+  <si>
+    <t>notify red alert for invalid input</t>
+  </si>
+  <si>
+    <t>notify red alert form empty fields</t>
+  </si>
+  <si>
+    <t>back to the class list page</t>
+  </si>
+  <si>
+    <t>create a class with all valid fields</t>
+  </si>
+  <si>
+    <t>create a class with invalid course name</t>
+  </si>
+  <si>
+    <t>create a class with invalid start date</t>
+  </si>
+  <si>
+    <t>create class unsuccessfully &amp; red alert</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,24 +1428,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="80">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -2348,17 +2348,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -2423,7 +2412,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2845,12 +2834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2878,380 +2861,392 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="75" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="23" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="23" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="23" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="23" borderId="75" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="23" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3605,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J50"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -4389,197 +4384,197 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="211" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="216" t="s">
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="218"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="181"/>
       <c r="V2" s="111"/>
-      <c r="W2" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" s="206"/>
+      <c r="W2" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="169"/>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="219" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="220"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="197" t="s">
+      <c r="D3" s="185"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="222" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="223"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="224"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="192"/>
       <c r="V3" s="111"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="195">
+      <c r="B4" s="183"/>
+      <c r="C4" s="200">
         <v>100</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="201"/>
       <c r="E4" s="122"/>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="200">
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="202">
         <f xml:space="preserve"> IF([1]FunctionList!E6&lt;&gt;"N/A",SUM(C4*[1]FunctionList!E6/1000,- P7),"N/A")</f>
         <v>0</v>
       </c>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
-      <c r="U4" s="202"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="204"/>
       <c r="V4" s="111"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="203" t="s">
+      <c r="B5" s="183"/>
+      <c r="C5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
       <c r="V5" s="111"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="169"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="188"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="187" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="188" t="s">
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="191" t="s">
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="192"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="214"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
+      <c r="A7" s="193">
         <f>COUNTIF(F48:HR48,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
+      <c r="B7" s="194"/>
+      <c r="C7" s="195">
         <f>COUNTIF(F48:HR48,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="196"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195">
         <f>SUM(P7,- A7,- C7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="229"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="197"/>
       <c r="M7" s="7">
         <f>COUNTIF(E47:HR47,"N")</f>
         <v>1</v>
@@ -4592,18 +4587,18 @@
         <f>COUNTIF(E47:HR47,"B")</f>
         <v>2</v>
       </c>
-      <c r="P7" s="230">
+      <c r="P7" s="198">
         <f>COUNTA(E9:HU9)</f>
         <v>10</v>
       </c>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="228"/>
-      <c r="U7" s="231"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="199"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="206"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
     </row>
     <row r="8" spans="1:24" ht="11.25" thickBot="1">
       <c r="W8" s="111"/>
@@ -4625,25 +4620,25 @@
         <v>72</v>
       </c>
       <c r="I9" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="K9" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="L9" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="105" t="s">
+      <c r="M9" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="105" t="s">
+      <c r="N9" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="O9" s="105" t="s">
         <v>115</v>
-      </c>
-      <c r="O9" s="105" t="s">
-        <v>116</v>
       </c>
       <c r="P9" s="105"/>
       <c r="Q9" s="105"/>
@@ -4681,10 +4676,10 @@
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
       <c r="U10" s="86"/>
-      <c r="W10" s="205" t="s">
+      <c r="W10" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="X10" s="207"/>
+      <c r="X10" s="170"/>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1">
       <c r="A11" s="18"/>
@@ -4710,8 +4705,8 @@
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
       <c r="U11" s="89"/>
-      <c r="W11" s="207"/>
-      <c r="X11" s="207"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="18"/>
@@ -4735,8 +4730,8 @@
       <c r="S12" s="88"/>
       <c r="T12" s="88"/>
       <c r="U12" s="89"/>
-      <c r="W12" s="207"/>
-      <c r="X12" s="207"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1">
       <c r="A13" s="18"/>
@@ -4760,8 +4755,8 @@
       <c r="S13" s="88"/>
       <c r="T13" s="88"/>
       <c r="U13" s="89"/>
-      <c r="W13" s="207"/>
-      <c r="X13" s="207"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1">
       <c r="A14" s="18"/>
@@ -4787,8 +4782,8 @@
       <c r="S14" s="88"/>
       <c r="T14" s="88"/>
       <c r="U14" s="89"/>
-      <c r="W14" s="207"/>
-      <c r="X14" s="207"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1">
       <c r="A15" s="18"/>
@@ -4816,8 +4811,8 @@
       <c r="S15" s="88"/>
       <c r="T15" s="88"/>
       <c r="U15" s="89"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="170"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
       <c r="A16" s="18"/>
@@ -4845,8 +4840,8 @@
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
       <c r="U16" s="89"/>
-      <c r="W16" s="207"/>
-      <c r="X16" s="207"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1">
       <c r="A17" s="18"/>
@@ -4874,8 +4869,8 @@
       <c r="S17" s="88"/>
       <c r="T17" s="88"/>
       <c r="U17" s="89"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="170"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1">
       <c r="A18" s="18"/>
@@ -4903,8 +4898,8 @@
       <c r="S18" s="88"/>
       <c r="T18" s="88"/>
       <c r="U18" s="89"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="170"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1">
       <c r="A19" s="18"/>
@@ -4930,8 +4925,8 @@
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
       <c r="U19" s="89"/>
-      <c r="W19" s="207"/>
-      <c r="X19" s="207"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1">
       <c r="A20" s="18"/>
@@ -4959,8 +4954,8 @@
       <c r="S20" s="88"/>
       <c r="T20" s="88"/>
       <c r="U20" s="89"/>
-      <c r="W20" s="207"/>
-      <c r="X20" s="207"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1">
       <c r="A21" s="18"/>
@@ -4987,8 +4982,8 @@
       <c r="T21" s="88"/>
       <c r="U21" s="89"/>
       <c r="V21" s="19"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="207"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1">
       <c r="A22" s="18"/>
@@ -5015,17 +5010,17 @@
       <c r="T22" s="88"/>
       <c r="U22" s="89"/>
       <c r="V22" s="19"/>
-      <c r="W22" s="207"/>
-      <c r="X22" s="207"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="121"/>
       <c r="C23" s="120"/>
-      <c r="D23" s="167">
+      <c r="D23" s="215">
         <v>0</v>
       </c>
-      <c r="E23" s="167"/>
+      <c r="E23" s="215"/>
       <c r="F23" s="88"/>
       <c r="G23" s="88"/>
       <c r="H23" s="88"/>
@@ -5044,16 +5039,16 @@
       <c r="S23" s="88"/>
       <c r="T23" s="88"/>
       <c r="U23" s="89"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="174">
+      <c r="B24" s="222">
         <v>2</v>
       </c>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="108"/>
       <c r="F24" s="88" t="s">
         <v>19</v>
@@ -5075,8 +5070,8 @@
       <c r="S24" s="88"/>
       <c r="T24" s="88"/>
       <c r="U24" s="89"/>
-      <c r="W24" s="207"/>
-      <c r="X24" s="207"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1">
       <c r="A25" s="18"/>
@@ -5104,8 +5099,8 @@
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
       <c r="U25" s="89"/>
-      <c r="W25" s="207"/>
-      <c r="X25" s="207"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1">
       <c r="A26" s="18"/>
@@ -5133,8 +5128,8 @@
       <c r="S26" s="88"/>
       <c r="T26" s="88"/>
       <c r="U26" s="89"/>
-      <c r="W26" s="207"/>
-      <c r="X26" s="207"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1">
       <c r="A27" s="18"/>
@@ -5160,8 +5155,8 @@
       <c r="S27" s="88"/>
       <c r="T27" s="88"/>
       <c r="U27" s="89"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1">
       <c r="A28" s="18"/>
@@ -5187,8 +5182,8 @@
       <c r="S28" s="88"/>
       <c r="T28" s="88"/>
       <c r="U28" s="89"/>
-      <c r="W28" s="207"/>
-      <c r="X28" s="207"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1">
       <c r="A29" s="18"/>
@@ -5214,8 +5209,8 @@
       <c r="S29" s="88"/>
       <c r="T29" s="88"/>
       <c r="U29" s="89"/>
-      <c r="W29" s="207"/>
-      <c r="X29" s="207"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1">
       <c r="A30" s="18"/>
@@ -5247,8 +5242,8 @@
       <c r="S30" s="88"/>
       <c r="T30" s="88"/>
       <c r="U30" s="89"/>
-      <c r="W30" s="207"/>
-      <c r="X30" s="207"/>
+      <c r="W30" s="170"/>
+      <c r="X30" s="170"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1">
       <c r="A31" s="18"/>
@@ -5276,8 +5271,8 @@
       <c r="S31" s="88"/>
       <c r="T31" s="88"/>
       <c r="U31" s="89"/>
-      <c r="W31" s="207"/>
-      <c r="X31" s="207"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1">
       <c r="A32" s="18"/>
@@ -5303,8 +5298,8 @@
       <c r="S32" s="88"/>
       <c r="T32" s="88"/>
       <c r="U32" s="89"/>
-      <c r="W32" s="207"/>
-      <c r="X32" s="207"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="170"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1">
       <c r="A33" s="18"/>
@@ -5330,8 +5325,8 @@
       <c r="S33" s="88"/>
       <c r="T33" s="88"/>
       <c r="U33" s="89"/>
-      <c r="W33" s="207"/>
-      <c r="X33" s="207"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1">
       <c r="A34" s="18"/>
@@ -5359,8 +5354,8 @@
       <c r="S34" s="88"/>
       <c r="T34" s="88"/>
       <c r="U34" s="89"/>
-      <c r="W34" s="207"/>
-      <c r="X34" s="207"/>
+      <c r="W34" s="170"/>
+      <c r="X34" s="170"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A35" s="18"/>
@@ -5386,8 +5381,8 @@
       <c r="S35" s="96"/>
       <c r="T35" s="96"/>
       <c r="U35" s="97"/>
-      <c r="W35" s="207"/>
-      <c r="X35" s="207"/>
+      <c r="W35" s="170"/>
+      <c r="X35" s="170"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
       <c r="A36" s="21" t="s">
@@ -5415,10 +5410,10 @@
       <c r="S36" s="85"/>
       <c r="T36" s="85"/>
       <c r="U36" s="86"/>
-      <c r="W36" s="208" t="s">
-        <v>117</v>
-      </c>
-      <c r="X36" s="208"/>
+      <c r="W36" s="171" t="s">
+        <v>116</v>
+      </c>
+      <c r="X36" s="171"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1">
       <c r="A37" s="22"/>
@@ -5450,8 +5445,8 @@
       <c r="S37" s="88"/>
       <c r="T37" s="88"/>
       <c r="U37" s="89"/>
-      <c r="W37" s="208"/>
-      <c r="X37" s="208"/>
+      <c r="W37" s="171"/>
+      <c r="X37" s="171"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1">
       <c r="A38" s="22"/>
@@ -5461,7 +5456,9 @@
         <v>25</v>
       </c>
       <c r="E38" s="90"/>
-      <c r="F38" s="88"/>
+      <c r="F38" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88" t="s">
@@ -5481,8 +5478,8 @@
       <c r="S38" s="88"/>
       <c r="T38" s="88"/>
       <c r="U38" s="89"/>
-      <c r="W38" s="208"/>
-      <c r="X38" s="208"/>
+      <c r="W38" s="171"/>
+      <c r="X38" s="171"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1">
       <c r="A39" s="22"/>
@@ -5508,8 +5505,8 @@
       <c r="S39" s="88"/>
       <c r="T39" s="88"/>
       <c r="U39" s="89"/>
-      <c r="W39" s="208"/>
-      <c r="X39" s="208"/>
+      <c r="W39" s="171"/>
+      <c r="X39" s="171"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1">
       <c r="A40" s="22"/>
@@ -5533,8 +5530,8 @@
       <c r="S40" s="88"/>
       <c r="T40" s="88"/>
       <c r="U40" s="89"/>
-      <c r="W40" s="208"/>
-      <c r="X40" s="208"/>
+      <c r="W40" s="171"/>
+      <c r="X40" s="171"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1">
       <c r="A41" s="22"/>
@@ -5560,16 +5557,16 @@
       <c r="S41" s="88"/>
       <c r="T41" s="88"/>
       <c r="U41" s="89"/>
-      <c r="W41" s="208"/>
-      <c r="X41" s="208"/>
+      <c r="W41" s="171"/>
+      <c r="X41" s="171"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1">
       <c r="A42" s="22"/>
-      <c r="B42" s="171" t="s">
+      <c r="B42" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="173"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="90"/>
       <c r="F42" s="88" t="s">
         <v>19</v>
@@ -5591,16 +5588,16 @@
       <c r="S42" s="88"/>
       <c r="T42" s="88"/>
       <c r="U42" s="89"/>
-      <c r="W42" s="208"/>
-      <c r="X42" s="208"/>
+      <c r="W42" s="171"/>
+      <c r="X42" s="171"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1">
       <c r="A43" s="22"/>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="225" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
       <c r="E43" s="107"/>
       <c r="F43" s="92" t="s">
         <v>19</v>
@@ -5622,16 +5619,16 @@
       <c r="S43" s="92"/>
       <c r="T43" s="92"/>
       <c r="U43" s="93"/>
-      <c r="W43" s="208"/>
-      <c r="X43" s="208"/>
+      <c r="W43" s="171"/>
+      <c r="X43" s="171"/>
     </row>
     <row r="44" spans="1:24" ht="13.5" customHeight="1">
       <c r="A44" s="22"/>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
+      <c r="C44" s="226"/>
+      <c r="D44" s="226"/>
       <c r="E44" s="107"/>
       <c r="F44" s="92"/>
       <c r="G44" s="92"/>
@@ -5653,16 +5650,16 @@
       <c r="S44" s="92"/>
       <c r="T44" s="92"/>
       <c r="U44" s="93"/>
-      <c r="W44" s="208"/>
-      <c r="X44" s="208"/>
+      <c r="W44" s="171"/>
+      <c r="X44" s="171"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="181"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="229"/>
       <c r="E45" s="107"/>
       <c r="F45" s="92"/>
       <c r="G45" s="92"/>
@@ -5682,16 +5679,16 @@
       <c r="S45" s="92"/>
       <c r="T45" s="92"/>
       <c r="U45" s="93"/>
-      <c r="W45" s="208"/>
-      <c r="X45" s="208"/>
+      <c r="W45" s="171"/>
+      <c r="X45" s="171"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="22"/>
-      <c r="B46" s="182" t="s">
+      <c r="B46" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="183"/>
-      <c r="D46" s="184"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="232"/>
       <c r="E46" s="91"/>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
@@ -5709,18 +5706,18 @@
       <c r="S46" s="92"/>
       <c r="T46" s="92"/>
       <c r="U46" s="93"/>
-      <c r="W46" s="208"/>
-      <c r="X46" s="208"/>
+      <c r="W46" s="171"/>
+      <c r="X46" s="171"/>
     </row>
     <row r="47" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
       <c r="A47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
       <c r="E47" s="98"/>
       <c r="F47" s="73" t="s">
         <v>32</v>
@@ -5748,18 +5745,18 @@
       <c r="S47" s="73"/>
       <c r="T47" s="73"/>
       <c r="U47" s="74"/>
-      <c r="W47" s="205" t="s">
+      <c r="W47" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="X47" s="205"/>
+      <c r="X47" s="168"/>
     </row>
     <row r="48" spans="1:24" ht="13.5" customHeight="1">
       <c r="A48" s="22"/>
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
       <c r="E48" s="99"/>
       <c r="F48" s="75" t="s">
         <v>34</v>
@@ -5787,16 +5784,16 @@
       <c r="S48" s="75"/>
       <c r="T48" s="75"/>
       <c r="U48" s="76"/>
-      <c r="W48" s="205"/>
-      <c r="X48" s="205"/>
+      <c r="W48" s="168"/>
+      <c r="X48" s="168"/>
     </row>
     <row r="49" spans="1:24" ht="13.5" customHeight="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="C49" s="217"/>
+      <c r="D49" s="217"/>
       <c r="E49" s="100"/>
       <c r="F49" s="77">
         <v>39139</v>
@@ -5824,16 +5821,16 @@
       <c r="S49" s="77"/>
       <c r="T49" s="77"/>
       <c r="U49" s="78"/>
-      <c r="W49" s="205"/>
-      <c r="X49" s="205"/>
+      <c r="W49" s="168"/>
+      <c r="X49" s="168"/>
     </row>
     <row r="50" spans="1:24" ht="11.25" customHeight="1" thickBot="1">
       <c r="A50" s="26"/>
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="218"/>
       <c r="E50" s="101"/>
       <c r="F50" s="79"/>
       <c r="G50" s="79"/>
@@ -5851,29 +5848,29 @@
       <c r="S50" s="79"/>
       <c r="T50" s="79"/>
       <c r="U50" s="80"/>
-      <c r="W50" s="205"/>
-      <c r="X50" s="205"/>
+      <c r="W50" s="168"/>
+      <c r="X50" s="168"/>
     </row>
     <row r="51" spans="1:24" ht="11.25" customHeight="1" thickTop="1">
       <c r="A51" s="28"/>
-      <c r="W51" s="205"/>
-      <c r="X51" s="205"/>
+      <c r="W51" s="168"/>
+      <c r="X51" s="168"/>
     </row>
     <row r="52" spans="1:24" ht="10.5" customHeight="1">
-      <c r="W52" s="205"/>
-      <c r="X52" s="205"/>
+      <c r="W52" s="168"/>
+      <c r="X52" s="168"/>
     </row>
     <row r="53" spans="1:24" ht="10.5" customHeight="1">
-      <c r="W53" s="205"/>
-      <c r="X53" s="205"/>
+      <c r="W53" s="168"/>
+      <c r="X53" s="168"/>
     </row>
     <row r="54" spans="1:24" ht="10.5" customHeight="1">
-      <c r="W54" s="205"/>
-      <c r="X54" s="205"/>
+      <c r="W54" s="168"/>
+      <c r="X54" s="168"/>
     </row>
     <row r="55" spans="1:24" ht="10.5" customHeight="1">
-      <c r="W55" s="205"/>
-      <c r="X55" s="205"/>
+      <c r="W55" s="168"/>
+      <c r="X55" s="168"/>
     </row>
     <row r="56" spans="1:24">
       <c r="W56" s="111"/>
@@ -5989,6 +5986,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:U5"/>
     <mergeCell ref="W47:X55"/>
     <mergeCell ref="W2:X7"/>
     <mergeCell ref="W10:X35"/>
@@ -6005,28 +6024,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="P7:U7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:U5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65552:U65580 JC65552:JQ65580 SY65552:TM65580 ACU65552:ADI65580 AMQ65552:ANE65580 AWM65552:AXA65580 BGI65552:BGW65580 BQE65552:BQS65580 CAA65552:CAO65580 CJW65552:CKK65580 CTS65552:CUG65580 DDO65552:DEC65580 DNK65552:DNY65580 DXG65552:DXU65580 EHC65552:EHQ65580 EQY65552:ERM65580 FAU65552:FBI65580 FKQ65552:FLE65580 FUM65552:FVA65580 GEI65552:GEW65580 GOE65552:GOS65580 GYA65552:GYO65580 HHW65552:HIK65580 HRS65552:HSG65580 IBO65552:ICC65580 ILK65552:ILY65580 IVG65552:IVU65580 JFC65552:JFQ65580 JOY65552:JPM65580 JYU65552:JZI65580 KIQ65552:KJE65580 KSM65552:KTA65580 LCI65552:LCW65580 LME65552:LMS65580 LWA65552:LWO65580 MFW65552:MGK65580 MPS65552:MQG65580 MZO65552:NAC65580 NJK65552:NJY65580 NTG65552:NTU65580 ODC65552:ODQ65580 OMY65552:ONM65580 OWU65552:OXI65580 PGQ65552:PHE65580 PQM65552:PRA65580 QAI65552:QAW65580 QKE65552:QKS65580 QUA65552:QUO65580 RDW65552:REK65580 RNS65552:ROG65580 RXO65552:RYC65580 SHK65552:SHY65580 SRG65552:SRU65580 TBC65552:TBQ65580 TKY65552:TLM65580 TUU65552:TVI65580 UEQ65552:UFE65580 UOM65552:UPA65580 UYI65552:UYW65580 VIE65552:VIS65580 VSA65552:VSO65580 WBW65552:WCK65580 WLS65552:WMG65580 WVO65552:WWC65580 F131088:U131116 JC131088:JQ131116 SY131088:TM131116 ACU131088:ADI131116 AMQ131088:ANE131116 AWM131088:AXA131116 BGI131088:BGW131116 BQE131088:BQS131116 CAA131088:CAO131116 CJW131088:CKK131116 CTS131088:CUG131116 DDO131088:DEC131116 DNK131088:DNY131116 DXG131088:DXU131116 EHC131088:EHQ131116 EQY131088:ERM131116 FAU131088:FBI131116 FKQ131088:FLE131116 FUM131088:FVA131116 GEI131088:GEW131116 GOE131088:GOS131116 GYA131088:GYO131116 HHW131088:HIK131116 HRS131088:HSG131116 IBO131088:ICC131116 ILK131088:ILY131116 IVG131088:IVU131116 JFC131088:JFQ131116 JOY131088:JPM131116 JYU131088:JZI131116 KIQ131088:KJE131116 KSM131088:KTA131116 LCI131088:LCW131116 LME131088:LMS131116 LWA131088:LWO131116 MFW131088:MGK131116 MPS131088:MQG131116 MZO131088:NAC131116 NJK131088:NJY131116 NTG131088:NTU131116 ODC131088:ODQ131116 OMY131088:ONM131116 OWU131088:OXI131116 PGQ131088:PHE131116 PQM131088:PRA131116 QAI131088:QAW131116 QKE131088:QKS131116 QUA131088:QUO131116 RDW131088:REK131116 RNS131088:ROG131116 RXO131088:RYC131116 SHK131088:SHY131116 SRG131088:SRU131116 TBC131088:TBQ131116 TKY131088:TLM131116 TUU131088:TVI131116 UEQ131088:UFE131116 UOM131088:UPA131116 UYI131088:UYW131116 VIE131088:VIS131116 VSA131088:VSO131116 WBW131088:WCK131116 WLS131088:WMG131116 WVO131088:WWC131116 F196624:U196652 JC196624:JQ196652 SY196624:TM196652 ACU196624:ADI196652 AMQ196624:ANE196652 AWM196624:AXA196652 BGI196624:BGW196652 BQE196624:BQS196652 CAA196624:CAO196652 CJW196624:CKK196652 CTS196624:CUG196652 DDO196624:DEC196652 DNK196624:DNY196652 DXG196624:DXU196652 EHC196624:EHQ196652 EQY196624:ERM196652 FAU196624:FBI196652 FKQ196624:FLE196652 FUM196624:FVA196652 GEI196624:GEW196652 GOE196624:GOS196652 GYA196624:GYO196652 HHW196624:HIK196652 HRS196624:HSG196652 IBO196624:ICC196652 ILK196624:ILY196652 IVG196624:IVU196652 JFC196624:JFQ196652 JOY196624:JPM196652 JYU196624:JZI196652 KIQ196624:KJE196652 KSM196624:KTA196652 LCI196624:LCW196652 LME196624:LMS196652 LWA196624:LWO196652 MFW196624:MGK196652 MPS196624:MQG196652 MZO196624:NAC196652 NJK196624:NJY196652 NTG196624:NTU196652 ODC196624:ODQ196652 OMY196624:ONM196652 OWU196624:OXI196652 PGQ196624:PHE196652 PQM196624:PRA196652 QAI196624:QAW196652 QKE196624:QKS196652 QUA196624:QUO196652 RDW196624:REK196652 RNS196624:ROG196652 RXO196624:RYC196652 SHK196624:SHY196652 SRG196624:SRU196652 TBC196624:TBQ196652 TKY196624:TLM196652 TUU196624:TVI196652 UEQ196624:UFE196652 UOM196624:UPA196652 UYI196624:UYW196652 VIE196624:VIS196652 VSA196624:VSO196652 WBW196624:WCK196652 WLS196624:WMG196652 WVO196624:WWC196652 F262160:U262188 JC262160:JQ262188 SY262160:TM262188 ACU262160:ADI262188 AMQ262160:ANE262188 AWM262160:AXA262188 BGI262160:BGW262188 BQE262160:BQS262188 CAA262160:CAO262188 CJW262160:CKK262188 CTS262160:CUG262188 DDO262160:DEC262188 DNK262160:DNY262188 DXG262160:DXU262188 EHC262160:EHQ262188 EQY262160:ERM262188 FAU262160:FBI262188 FKQ262160:FLE262188 FUM262160:FVA262188 GEI262160:GEW262188 GOE262160:GOS262188 GYA262160:GYO262188 HHW262160:HIK262188 HRS262160:HSG262188 IBO262160:ICC262188 ILK262160:ILY262188 IVG262160:IVU262188 JFC262160:JFQ262188 JOY262160:JPM262188 JYU262160:JZI262188 KIQ262160:KJE262188 KSM262160:KTA262188 LCI262160:LCW262188 LME262160:LMS262188 LWA262160:LWO262188 MFW262160:MGK262188 MPS262160:MQG262188 MZO262160:NAC262188 NJK262160:NJY262188 NTG262160:NTU262188 ODC262160:ODQ262188 OMY262160:ONM262188 OWU262160:OXI262188 PGQ262160:PHE262188 PQM262160:PRA262188 QAI262160:QAW262188 QKE262160:QKS262188 QUA262160:QUO262188 RDW262160:REK262188 RNS262160:ROG262188 RXO262160:RYC262188 SHK262160:SHY262188 SRG262160:SRU262188 TBC262160:TBQ262188 TKY262160:TLM262188 TUU262160:TVI262188 UEQ262160:UFE262188 UOM262160:UPA262188 UYI262160:UYW262188 VIE262160:VIS262188 VSA262160:VSO262188 WBW262160:WCK262188 WLS262160:WMG262188 WVO262160:WWC262188 F327696:U327724 JC327696:JQ327724 SY327696:TM327724 ACU327696:ADI327724 AMQ327696:ANE327724 AWM327696:AXA327724 BGI327696:BGW327724 BQE327696:BQS327724 CAA327696:CAO327724 CJW327696:CKK327724 CTS327696:CUG327724 DDO327696:DEC327724 DNK327696:DNY327724 DXG327696:DXU327724 EHC327696:EHQ327724 EQY327696:ERM327724 FAU327696:FBI327724 FKQ327696:FLE327724 FUM327696:FVA327724 GEI327696:GEW327724 GOE327696:GOS327724 GYA327696:GYO327724 HHW327696:HIK327724 HRS327696:HSG327724 IBO327696:ICC327724 ILK327696:ILY327724 IVG327696:IVU327724 JFC327696:JFQ327724 JOY327696:JPM327724 JYU327696:JZI327724 KIQ327696:KJE327724 KSM327696:KTA327724 LCI327696:LCW327724 LME327696:LMS327724 LWA327696:LWO327724 MFW327696:MGK327724 MPS327696:MQG327724 MZO327696:NAC327724 NJK327696:NJY327724 NTG327696:NTU327724 ODC327696:ODQ327724 OMY327696:ONM327724 OWU327696:OXI327724 PGQ327696:PHE327724 PQM327696:PRA327724 QAI327696:QAW327724 QKE327696:QKS327724 QUA327696:QUO327724 RDW327696:REK327724 RNS327696:ROG327724 RXO327696:RYC327724 SHK327696:SHY327724 SRG327696:SRU327724 TBC327696:TBQ327724 TKY327696:TLM327724 TUU327696:TVI327724 UEQ327696:UFE327724 UOM327696:UPA327724 UYI327696:UYW327724 VIE327696:VIS327724 VSA327696:VSO327724 WBW327696:WCK327724 WLS327696:WMG327724 WVO327696:WWC327724 F393232:U393260 JC393232:JQ393260 SY393232:TM393260 ACU393232:ADI393260 AMQ393232:ANE393260 AWM393232:AXA393260 BGI393232:BGW393260 BQE393232:BQS393260 CAA393232:CAO393260 CJW393232:CKK393260 CTS393232:CUG393260 DDO393232:DEC393260 DNK393232:DNY393260 DXG393232:DXU393260 EHC393232:EHQ393260 EQY393232:ERM393260 FAU393232:FBI393260 FKQ393232:FLE393260 FUM393232:FVA393260 GEI393232:GEW393260 GOE393232:GOS393260 GYA393232:GYO393260 HHW393232:HIK393260 HRS393232:HSG393260 IBO393232:ICC393260 ILK393232:ILY393260 IVG393232:IVU393260 JFC393232:JFQ393260 JOY393232:JPM393260 JYU393232:JZI393260 KIQ393232:KJE393260 KSM393232:KTA393260 LCI393232:LCW393260 LME393232:LMS393260 LWA393232:LWO393260 MFW393232:MGK393260 MPS393232:MQG393260 MZO393232:NAC393260 NJK393232:NJY393260 NTG393232:NTU393260 ODC393232:ODQ393260 OMY393232:ONM393260 OWU393232:OXI393260 PGQ393232:PHE393260 PQM393232:PRA393260 QAI393232:QAW393260 QKE393232:QKS393260 QUA393232:QUO393260 RDW393232:REK393260 RNS393232:ROG393260 RXO393232:RYC393260 SHK393232:SHY393260 SRG393232:SRU393260 TBC393232:TBQ393260 TKY393232:TLM393260 TUU393232:TVI393260 UEQ393232:UFE393260 UOM393232:UPA393260 UYI393232:UYW393260 VIE393232:VIS393260 VSA393232:VSO393260 WBW393232:WCK393260 WLS393232:WMG393260 WVO393232:WWC393260 F458768:U458796 JC458768:JQ458796 SY458768:TM458796 ACU458768:ADI458796 AMQ458768:ANE458796 AWM458768:AXA458796 BGI458768:BGW458796 BQE458768:BQS458796 CAA458768:CAO458796 CJW458768:CKK458796 CTS458768:CUG458796 DDO458768:DEC458796 DNK458768:DNY458796 DXG458768:DXU458796 EHC458768:EHQ458796 EQY458768:ERM458796 FAU458768:FBI458796 FKQ458768:FLE458796 FUM458768:FVA458796 GEI458768:GEW458796 GOE458768:GOS458796 GYA458768:GYO458796 HHW458768:HIK458796 HRS458768:HSG458796 IBO458768:ICC458796 ILK458768:ILY458796 IVG458768:IVU458796 JFC458768:JFQ458796 JOY458768:JPM458796 JYU458768:JZI458796 KIQ458768:KJE458796 KSM458768:KTA458796 LCI458768:LCW458796 LME458768:LMS458796 LWA458768:LWO458796 MFW458768:MGK458796 MPS458768:MQG458796 MZO458768:NAC458796 NJK458768:NJY458796 NTG458768:NTU458796 ODC458768:ODQ458796 OMY458768:ONM458796 OWU458768:OXI458796 PGQ458768:PHE458796 PQM458768:PRA458796 QAI458768:QAW458796 QKE458768:QKS458796 QUA458768:QUO458796 RDW458768:REK458796 RNS458768:ROG458796 RXO458768:RYC458796 SHK458768:SHY458796 SRG458768:SRU458796 TBC458768:TBQ458796 TKY458768:TLM458796 TUU458768:TVI458796 UEQ458768:UFE458796 UOM458768:UPA458796 UYI458768:UYW458796 VIE458768:VIS458796 VSA458768:VSO458796 WBW458768:WCK458796 WLS458768:WMG458796 WVO458768:WWC458796 F524304:U524332 JC524304:JQ524332 SY524304:TM524332 ACU524304:ADI524332 AMQ524304:ANE524332 AWM524304:AXA524332 BGI524304:BGW524332 BQE524304:BQS524332 CAA524304:CAO524332 CJW524304:CKK524332 CTS524304:CUG524332 DDO524304:DEC524332 DNK524304:DNY524332 DXG524304:DXU524332 EHC524304:EHQ524332 EQY524304:ERM524332 FAU524304:FBI524332 FKQ524304:FLE524332 FUM524304:FVA524332 GEI524304:GEW524332 GOE524304:GOS524332 GYA524304:GYO524332 HHW524304:HIK524332 HRS524304:HSG524332 IBO524304:ICC524332 ILK524304:ILY524332 IVG524304:IVU524332 JFC524304:JFQ524332 JOY524304:JPM524332 JYU524304:JZI524332 KIQ524304:KJE524332 KSM524304:KTA524332 LCI524304:LCW524332 LME524304:LMS524332 LWA524304:LWO524332 MFW524304:MGK524332 MPS524304:MQG524332 MZO524304:NAC524332 NJK524304:NJY524332 NTG524304:NTU524332 ODC524304:ODQ524332 OMY524304:ONM524332 OWU524304:OXI524332 PGQ524304:PHE524332 PQM524304:PRA524332 QAI524304:QAW524332 QKE524304:QKS524332 QUA524304:QUO524332 RDW524304:REK524332 RNS524304:ROG524332 RXO524304:RYC524332 SHK524304:SHY524332 SRG524304:SRU524332 TBC524304:TBQ524332 TKY524304:TLM524332 TUU524304:TVI524332 UEQ524304:UFE524332 UOM524304:UPA524332 UYI524304:UYW524332 VIE524304:VIS524332 VSA524304:VSO524332 WBW524304:WCK524332 WLS524304:WMG524332 WVO524304:WWC524332 F589840:U589868 JC589840:JQ589868 SY589840:TM589868 ACU589840:ADI589868 AMQ589840:ANE589868 AWM589840:AXA589868 BGI589840:BGW589868 BQE589840:BQS589868 CAA589840:CAO589868 CJW589840:CKK589868 CTS589840:CUG589868 DDO589840:DEC589868 DNK589840:DNY589868 DXG589840:DXU589868 EHC589840:EHQ589868 EQY589840:ERM589868 FAU589840:FBI589868 FKQ589840:FLE589868 FUM589840:FVA589868 GEI589840:GEW589868 GOE589840:GOS589868 GYA589840:GYO589868 HHW589840:HIK589868 HRS589840:HSG589868 IBO589840:ICC589868 ILK589840:ILY589868 IVG589840:IVU589868 JFC589840:JFQ589868 JOY589840:JPM589868 JYU589840:JZI589868 KIQ589840:KJE589868 KSM589840:KTA589868 LCI589840:LCW589868 LME589840:LMS589868 LWA589840:LWO589868 MFW589840:MGK589868 MPS589840:MQG589868 MZO589840:NAC589868 NJK589840:NJY589868 NTG589840:NTU589868 ODC589840:ODQ589868 OMY589840:ONM589868 OWU589840:OXI589868 PGQ589840:PHE589868 PQM589840:PRA589868 QAI589840:QAW589868 QKE589840:QKS589868 QUA589840:QUO589868 RDW589840:REK589868 RNS589840:ROG589868 RXO589840:RYC589868 SHK589840:SHY589868 SRG589840:SRU589868 TBC589840:TBQ589868 TKY589840:TLM589868 TUU589840:TVI589868 UEQ589840:UFE589868 UOM589840:UPA589868 UYI589840:UYW589868 VIE589840:VIS589868 VSA589840:VSO589868 WBW589840:WCK589868 WLS589840:WMG589868 WVO589840:WWC589868 F655376:U655404 JC655376:JQ655404 SY655376:TM655404 ACU655376:ADI655404 AMQ655376:ANE655404 AWM655376:AXA655404 BGI655376:BGW655404 BQE655376:BQS655404 CAA655376:CAO655404 CJW655376:CKK655404 CTS655376:CUG655404 DDO655376:DEC655404 DNK655376:DNY655404 DXG655376:DXU655404 EHC655376:EHQ655404 EQY655376:ERM655404 FAU655376:FBI655404 FKQ655376:FLE655404 FUM655376:FVA655404 GEI655376:GEW655404 GOE655376:GOS655404 GYA655376:GYO655404 HHW655376:HIK655404 HRS655376:HSG655404 IBO655376:ICC655404 ILK655376:ILY655404 IVG655376:IVU655404 JFC655376:JFQ655404 JOY655376:JPM655404 JYU655376:JZI655404 KIQ655376:KJE655404 KSM655376:KTA655404 LCI655376:LCW655404 LME655376:LMS655404 LWA655376:LWO655404 MFW655376:MGK655404 MPS655376:MQG655404 MZO655376:NAC655404 NJK655376:NJY655404 NTG655376:NTU655404 ODC655376:ODQ655404 OMY655376:ONM655404 OWU655376:OXI655404 PGQ655376:PHE655404 PQM655376:PRA655404 QAI655376:QAW655404 QKE655376:QKS655404 QUA655376:QUO655404 RDW655376:REK655404 RNS655376:ROG655404 RXO655376:RYC655404 SHK655376:SHY655404 SRG655376:SRU655404 TBC655376:TBQ655404 TKY655376:TLM655404 TUU655376:TVI655404 UEQ655376:UFE655404 UOM655376:UPA655404 UYI655376:UYW655404 VIE655376:VIS655404 VSA655376:VSO655404 WBW655376:WCK655404 WLS655376:WMG655404 WVO655376:WWC655404 F720912:U720940 JC720912:JQ720940 SY720912:TM720940 ACU720912:ADI720940 AMQ720912:ANE720940 AWM720912:AXA720940 BGI720912:BGW720940 BQE720912:BQS720940 CAA720912:CAO720940 CJW720912:CKK720940 CTS720912:CUG720940 DDO720912:DEC720940 DNK720912:DNY720940 DXG720912:DXU720940 EHC720912:EHQ720940 EQY720912:ERM720940 FAU720912:FBI720940 FKQ720912:FLE720940 FUM720912:FVA720940 GEI720912:GEW720940 GOE720912:GOS720940 GYA720912:GYO720940 HHW720912:HIK720940 HRS720912:HSG720940 IBO720912:ICC720940 ILK720912:ILY720940 IVG720912:IVU720940 JFC720912:JFQ720940 JOY720912:JPM720940 JYU720912:JZI720940 KIQ720912:KJE720940 KSM720912:KTA720940 LCI720912:LCW720940 LME720912:LMS720940 LWA720912:LWO720940 MFW720912:MGK720940 MPS720912:MQG720940 MZO720912:NAC720940 NJK720912:NJY720940 NTG720912:NTU720940 ODC720912:ODQ720940 OMY720912:ONM720940 OWU720912:OXI720940 PGQ720912:PHE720940 PQM720912:PRA720940 QAI720912:QAW720940 QKE720912:QKS720940 QUA720912:QUO720940 RDW720912:REK720940 RNS720912:ROG720940 RXO720912:RYC720940 SHK720912:SHY720940 SRG720912:SRU720940 TBC720912:TBQ720940 TKY720912:TLM720940 TUU720912:TVI720940 UEQ720912:UFE720940 UOM720912:UPA720940 UYI720912:UYW720940 VIE720912:VIS720940 VSA720912:VSO720940 WBW720912:WCK720940 WLS720912:WMG720940 WVO720912:WWC720940 F786448:U786476 JC786448:JQ786476 SY786448:TM786476 ACU786448:ADI786476 AMQ786448:ANE786476 AWM786448:AXA786476 BGI786448:BGW786476 BQE786448:BQS786476 CAA786448:CAO786476 CJW786448:CKK786476 CTS786448:CUG786476 DDO786448:DEC786476 DNK786448:DNY786476 DXG786448:DXU786476 EHC786448:EHQ786476 EQY786448:ERM786476 FAU786448:FBI786476 FKQ786448:FLE786476 FUM786448:FVA786476 GEI786448:GEW786476 GOE786448:GOS786476 GYA786448:GYO786476 HHW786448:HIK786476 HRS786448:HSG786476 IBO786448:ICC786476 ILK786448:ILY786476 IVG786448:IVU786476 JFC786448:JFQ786476 JOY786448:JPM786476 JYU786448:JZI786476 KIQ786448:KJE786476 KSM786448:KTA786476 LCI786448:LCW786476 LME786448:LMS786476 LWA786448:LWO786476 MFW786448:MGK786476 MPS786448:MQG786476 MZO786448:NAC786476 NJK786448:NJY786476 NTG786448:NTU786476 ODC786448:ODQ786476 OMY786448:ONM786476 OWU786448:OXI786476 PGQ786448:PHE786476 PQM786448:PRA786476 QAI786448:QAW786476 QKE786448:QKS786476 QUA786448:QUO786476 RDW786448:REK786476 RNS786448:ROG786476 RXO786448:RYC786476 SHK786448:SHY786476 SRG786448:SRU786476 TBC786448:TBQ786476 TKY786448:TLM786476 TUU786448:TVI786476 UEQ786448:UFE786476 UOM786448:UPA786476 UYI786448:UYW786476 VIE786448:VIS786476 VSA786448:VSO786476 WBW786448:WCK786476 WLS786448:WMG786476 WVO786448:WWC786476 F851984:U852012 JC851984:JQ852012 SY851984:TM852012 ACU851984:ADI852012 AMQ851984:ANE852012 AWM851984:AXA852012 BGI851984:BGW852012 BQE851984:BQS852012 CAA851984:CAO852012 CJW851984:CKK852012 CTS851984:CUG852012 DDO851984:DEC852012 DNK851984:DNY852012 DXG851984:DXU852012 EHC851984:EHQ852012 EQY851984:ERM852012 FAU851984:FBI852012 FKQ851984:FLE852012 FUM851984:FVA852012 GEI851984:GEW852012 GOE851984:GOS852012 GYA851984:GYO852012 HHW851984:HIK852012 HRS851984:HSG852012 IBO851984:ICC852012 ILK851984:ILY852012 IVG851984:IVU852012 JFC851984:JFQ852012 JOY851984:JPM852012 JYU851984:JZI852012 KIQ851984:KJE852012 KSM851984:KTA852012 LCI851984:LCW852012 LME851984:LMS852012 LWA851984:LWO852012 MFW851984:MGK852012 MPS851984:MQG852012 MZO851984:NAC852012 NJK851984:NJY852012 NTG851984:NTU852012 ODC851984:ODQ852012 OMY851984:ONM852012 OWU851984:OXI852012 PGQ851984:PHE852012 PQM851984:PRA852012 QAI851984:QAW852012 QKE851984:QKS852012 QUA851984:QUO852012 RDW851984:REK852012 RNS851984:ROG852012 RXO851984:RYC852012 SHK851984:SHY852012 SRG851984:SRU852012 TBC851984:TBQ852012 TKY851984:TLM852012 TUU851984:TVI852012 UEQ851984:UFE852012 UOM851984:UPA852012 UYI851984:UYW852012 VIE851984:VIS852012 VSA851984:VSO852012 WBW851984:WCK852012 WLS851984:WMG852012 WVO851984:WWC852012 F917520:U917548 JC917520:JQ917548 SY917520:TM917548 ACU917520:ADI917548 AMQ917520:ANE917548 AWM917520:AXA917548 BGI917520:BGW917548 BQE917520:BQS917548 CAA917520:CAO917548 CJW917520:CKK917548 CTS917520:CUG917548 DDO917520:DEC917548 DNK917520:DNY917548 DXG917520:DXU917548 EHC917520:EHQ917548 EQY917520:ERM917548 FAU917520:FBI917548 FKQ917520:FLE917548 FUM917520:FVA917548 GEI917520:GEW917548 GOE917520:GOS917548 GYA917520:GYO917548 HHW917520:HIK917548 HRS917520:HSG917548 IBO917520:ICC917548 ILK917520:ILY917548 IVG917520:IVU917548 JFC917520:JFQ917548 JOY917520:JPM917548 JYU917520:JZI917548 KIQ917520:KJE917548 KSM917520:KTA917548 LCI917520:LCW917548 LME917520:LMS917548 LWA917520:LWO917548 MFW917520:MGK917548 MPS917520:MQG917548 MZO917520:NAC917548 NJK917520:NJY917548 NTG917520:NTU917548 ODC917520:ODQ917548 OMY917520:ONM917548 OWU917520:OXI917548 PGQ917520:PHE917548 PQM917520:PRA917548 QAI917520:QAW917548 QKE917520:QKS917548 QUA917520:QUO917548 RDW917520:REK917548 RNS917520:ROG917548 RXO917520:RYC917548 SHK917520:SHY917548 SRG917520:SRU917548 TBC917520:TBQ917548 TKY917520:TLM917548 TUU917520:TVI917548 UEQ917520:UFE917548 UOM917520:UPA917548 UYI917520:UYW917548 VIE917520:VIS917548 VSA917520:VSO917548 WBW917520:WCK917548 WLS917520:WMG917548 WVO917520:WWC917548 F983056:U983084 JC983056:JQ983084 SY983056:TM983084 ACU983056:ADI983084 AMQ983056:ANE983084 AWM983056:AXA983084 BGI983056:BGW983084 BQE983056:BQS983084 CAA983056:CAO983084 CJW983056:CKK983084 CTS983056:CUG983084 DDO983056:DEC983084 DNK983056:DNY983084 DXG983056:DXU983084 EHC983056:EHQ983084 EQY983056:ERM983084 FAU983056:FBI983084 FKQ983056:FLE983084 FUM983056:FVA983084 GEI983056:GEW983084 GOE983056:GOS983084 GYA983056:GYO983084 HHW983056:HIK983084 HRS983056:HSG983084 IBO983056:ICC983084 ILK983056:ILY983084 IVG983056:IVU983084 JFC983056:JFQ983084 JOY983056:JPM983084 JYU983056:JZI983084 KIQ983056:KJE983084 KSM983056:KTA983084 LCI983056:LCW983084 LME983056:LMS983084 LWA983056:LWO983084 MFW983056:MGK983084 MPS983056:MQG983084 MZO983056:NAC983084 NJK983056:NJY983084 NTG983056:NTU983084 ODC983056:ODQ983084 OMY983056:ONM983084 OWU983056:OXI983084 PGQ983056:PHE983084 PQM983056:PRA983084 QAI983056:QAW983084 QKE983056:QKS983084 QUA983056:QUO983084 RDW983056:REK983084 RNS983056:ROG983084 RXO983056:RYC983084 SHK983056:SHY983084 SRG983056:SRU983084 TBC983056:TBQ983084 TKY983056:TLM983084 TUU983056:TVI983084 UEQ983056:UFE983084 UOM983056:UPA983084 UYI983056:UYW983084 VIE983056:VIS983084 VSA983056:VSO983084 WBW983056:WCK983084 WLS983056:WMG983084 WVO983056:WWC983084 WVO10:WWC46 WLS10:WMG46 WBW10:WCK46 VSA10:VSO46 VIE10:VIS46 UYI10:UYW46 UOM10:UPA46 UEQ10:UFE46 TUU10:TVI46 TKY10:TLM46 TBC10:TBQ46 SRG10:SRU46 SHK10:SHY46 RXO10:RYC46 RNS10:ROG46 RDW10:REK46 QUA10:QUO46 QKE10:QKS46 QAI10:QAW46 PQM10:PRA46 PGQ10:PHE46 OWU10:OXI46 OMY10:ONM46 ODC10:ODQ46 NTG10:NTU46 NJK10:NJY46 MZO10:NAC46 MPS10:MQG46 MFW10:MGK46 LWA10:LWO46 LME10:LMS46 LCI10:LCW46 KSM10:KTA46 KIQ10:KJE46 JYU10:JZI46 JOY10:JPM46 JFC10:JFQ46 IVG10:IVU46 ILK10:ILY46 IBO10:ICC46 HRS10:HSG46 HHW10:HIK46 GYA10:GYO46 GOE10:GOS46 GEI10:GEW46 FUM10:FVA46 FKQ10:FLE46 FAU10:FBI46 EQY10:ERM46 EHC10:EHQ46 DXG10:DXU46 DNK10:DNY46 DDO10:DEC46 CTS10:CUG46 CJW10:CKK46 CAA10:CAO46 BQE10:BQS46 BGI10:BGW46 AWM10:AXA46 AMQ10:ANE46 ACU10:ADI46 SY10:TM46 JC10:JQ46 F10:U46">
@@ -6049,8 +6046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -6831,178 +6828,178 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="263" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="234" t="s">
+      <c r="B2" s="259"/>
+      <c r="C2" s="250" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="264" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="265"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="262" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="263"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="263" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="238" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="250" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="266" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="267"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="267"/>
-      <c r="Q3" s="267"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="267"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="264" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="257"/>
     </row>
     <row r="4" spans="1:22" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="263" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="263"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="250" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="250"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="241">
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="254">
         <f xml:space="preserve"> IF([1]FunctionList!E6&lt;&gt;"N/A",SUM(C4*[1]FunctionList!E6/1000,- O7),"N/A")</f>
         <v>-3.0999999999999996</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="243"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="255"/>
+      <c r="Q4" s="255"/>
+      <c r="R4" s="255"/>
+      <c r="S4" s="255"/>
+      <c r="T4" s="256"/>
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="267" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="267"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="267"/>
-      <c r="Q5" s="267"/>
-      <c r="R5" s="267"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="267"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="257" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="257"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="257"/>
+      <c r="T5" s="257"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="188"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="187" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="188" t="s">
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="191" t="s">
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="192"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="214"/>
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="225">
+      <c r="A7" s="193">
         <f>COUNTIF(F76:HQ76,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="227">
+      <c r="B7" s="194"/>
+      <c r="C7" s="195">
         <f>COUNTIF(F76:HQ76,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227">
+      <c r="D7" s="196"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195">
         <f>SUM(O7,- A7,- C7)</f>
         <v>9</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="229"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
       <c r="L7" s="7">
         <f>COUNTIF(E75:HQ75,"N")</f>
         <v>0</v>
@@ -7013,17 +7010,17 @@
       </c>
       <c r="N7" s="7">
         <f>COUNTIF(E75:HQ75,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="230">
+        <v>2</v>
+      </c>
+      <c r="O7" s="198">
         <f>COUNTA(E9:HT9)</f>
         <v>10</v>
       </c>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="231"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="199"/>
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7043,25 +7040,25 @@
         <v>72</v>
       </c>
       <c r="I9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -7146,11 +7143,11 @@
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="268" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="270"/>
+      <c r="B13" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="61"/>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
@@ -7170,11 +7167,11 @@
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="18"/>
-      <c r="B14" s="271" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="272"/>
-      <c r="D14" s="163"/>
+      <c r="B14" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="166"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="62"/>
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
@@ -7194,12 +7191,12 @@
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="271"/>
-      <c r="C15" s="163" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="163" t="s">
-        <v>142</v>
+      <c r="B15" s="165"/>
+      <c r="C15" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="161" t="s">
+        <v>132</v>
       </c>
       <c r="E15" s="62"/>
       <c r="F15" s="88" t="s">
@@ -7222,16 +7219,18 @@
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="271"/>
-      <c r="C16" s="163" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="163" t="s">
-        <v>185</v>
+      <c r="B16" s="165"/>
+      <c r="C16" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="161" t="s">
+        <v>175</v>
       </c>
       <c r="E16" s="62"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="G16" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
@@ -7248,12 +7247,12 @@
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="18"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="163" t="s">
-        <v>144</v>
+      <c r="B17" s="165"/>
+      <c r="C17" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="161" t="s">
+        <v>134</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="88"/>
@@ -7274,12 +7273,12 @@
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="163" t="s">
-        <v>186</v>
+      <c r="B18" s="165"/>
+      <c r="C18" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="161" t="s">
+        <v>176</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="88"/>
@@ -7300,12 +7299,12 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="18"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="163" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="163" t="s">
-        <v>146</v>
+      <c r="B19" s="165"/>
+      <c r="C19" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="161" t="s">
+        <v>136</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="88"/>
@@ -7327,12 +7326,12 @@
     </row>
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="18"/>
-      <c r="B20" s="271"/>
-      <c r="C20" s="163" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="163" t="s">
-        <v>184</v>
+      <c r="B20" s="165"/>
+      <c r="C20" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="161" t="s">
+        <v>174</v>
       </c>
       <c r="E20" s="62"/>
       <c r="F20" s="88"/>
@@ -7354,12 +7353,12 @@
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="271"/>
-      <c r="C21" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="163" t="s">
-        <v>148</v>
+      <c r="B21" s="165"/>
+      <c r="C21" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="161" t="s">
+        <v>138</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="88"/>
@@ -7381,9 +7380,9 @@
     </row>
     <row r="22" spans="1:21" ht="13.5" customHeight="1">
       <c r="A22" s="18"/>
-      <c r="B22" s="271"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="62"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -7404,10 +7403,10 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+        <v>139</v>
+      </c>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="62"/>
       <c r="F23" s="88"/>
       <c r="G23" s="88"/>
@@ -7427,12 +7426,12 @@
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="271"/>
-      <c r="C24" s="163" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="163" t="s">
-        <v>151</v>
+      <c r="B24" s="165"/>
+      <c r="C24" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="161" t="s">
+        <v>141</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="88"/>
@@ -7453,12 +7452,12 @@
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="18"/>
-      <c r="B25" s="271"/>
-      <c r="C25" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="163" t="s">
-        <v>153</v>
+      <c r="B25" s="165"/>
+      <c r="C25" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="161" t="s">
+        <v>143</v>
       </c>
       <c r="E25" s="62"/>
       <c r="F25" s="88"/>
@@ -7479,12 +7478,12 @@
     </row>
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="18"/>
-      <c r="B26" s="271"/>
-      <c r="C26" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="163" t="s">
-        <v>155</v>
+      <c r="B26" s="165"/>
+      <c r="C26" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="161" t="s">
+        <v>145</v>
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="88"/>
@@ -7505,12 +7504,12 @@
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="18"/>
-      <c r="B27" s="271"/>
-      <c r="C27" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="163" t="s">
-        <v>176</v>
+      <c r="B27" s="165"/>
+      <c r="C27" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="161" t="s">
+        <v>166</v>
       </c>
       <c r="E27" s="62"/>
       <c r="F27" s="88"/>
@@ -7531,12 +7530,12 @@
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="271"/>
-      <c r="C28" s="163" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="163" t="s">
-        <v>178</v>
+      <c r="B28" s="165"/>
+      <c r="C28" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="161" t="s">
+        <v>168</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="88"/>
@@ -7557,12 +7556,12 @@
     </row>
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" s="18"/>
-      <c r="B29" s="271"/>
-      <c r="C29" s="163" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="163" t="s">
-        <v>179</v>
+      <c r="B29" s="165"/>
+      <c r="C29" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="161" t="s">
+        <v>169</v>
       </c>
       <c r="E29" s="62"/>
       <c r="F29" s="88"/>
@@ -7583,12 +7582,12 @@
     </row>
     <row r="30" spans="1:21" ht="13.5" customHeight="1">
       <c r="A30" s="18"/>
-      <c r="B30" s="271"/>
-      <c r="C30" s="163" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="163" t="s">
-        <v>157</v>
+      <c r="B30" s="165"/>
+      <c r="C30" s="161" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="161" t="s">
+        <v>147</v>
       </c>
       <c r="E30" s="62"/>
       <c r="F30" s="88"/>
@@ -7609,12 +7608,12 @@
     </row>
     <row r="31" spans="1:21" ht="13.5" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="271"/>
-      <c r="C31" s="163" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="163" t="s">
-        <v>183</v>
+      <c r="B31" s="165"/>
+      <c r="C31" s="161" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="161" t="s">
+        <v>173</v>
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="88"/>
@@ -7635,12 +7634,12 @@
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="163" t="s">
-        <v>182</v>
+      <c r="B32" s="165"/>
+      <c r="C32" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="161" t="s">
+        <v>172</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="88"/>
@@ -7661,9 +7660,9 @@
     </row>
     <row r="33" spans="1:21" ht="13.5" customHeight="1">
       <c r="A33" s="18"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
       <c r="E33" s="62"/>
       <c r="F33" s="88"/>
       <c r="G33" s="88"/>
@@ -7683,12 +7682,12 @@
     </row>
     <row r="34" spans="1:21" ht="13.5" customHeight="1">
       <c r="A34" s="18"/>
-      <c r="B34" s="273" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="275"/>
+      <c r="B34" s="233" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="235"/>
       <c r="F34" s="88"/>
       <c r="G34" s="88"/>
       <c r="H34" s="88"/>
@@ -7708,10 +7707,10 @@
     <row r="35" spans="1:21" ht="13.5" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="57" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C35" s="58"/>
-      <c r="D35" s="162"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="62"/>
       <c r="F35" s="88"/>
       <c r="G35" s="88"/>
@@ -7731,12 +7730,12 @@
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1">
       <c r="A36" s="18"/>
-      <c r="B36" s="271"/>
-      <c r="C36" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="163" t="s">
-        <v>160</v>
+      <c r="B36" s="165"/>
+      <c r="C36" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="161" t="s">
+        <v>150</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="88" t="s">
@@ -7759,16 +7758,18 @@
     </row>
     <row r="37" spans="1:21" ht="13.5" customHeight="1">
       <c r="A37" s="18"/>
-      <c r="B37" s="271"/>
-      <c r="C37" s="163" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="163" t="s">
-        <v>189</v>
+      <c r="B37" s="165"/>
+      <c r="C37" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="161" t="s">
+        <v>179</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
+      <c r="G37" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" s="88"/>
       <c r="I37" s="88"/>
       <c r="J37" s="88"/>
@@ -7785,12 +7786,12 @@
     </row>
     <row r="38" spans="1:21" ht="13.5" customHeight="1">
       <c r="A38" s="18"/>
-      <c r="B38" s="271"/>
-      <c r="C38" s="163" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="163" t="s">
-        <v>190</v>
+      <c r="B38" s="165"/>
+      <c r="C38" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="161" t="s">
+        <v>180</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="88"/>
@@ -7811,12 +7812,12 @@
     </row>
     <row r="39" spans="1:21" ht="13.5" customHeight="1">
       <c r="A39" s="18"/>
-      <c r="B39" s="271"/>
-      <c r="C39" s="163" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="163" t="s">
-        <v>162</v>
+      <c r="B39" s="165"/>
+      <c r="C39" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="161" t="s">
+        <v>152</v>
       </c>
       <c r="E39" s="62"/>
       <c r="F39" s="88"/>
@@ -7838,12 +7839,12 @@
     </row>
     <row r="40" spans="1:21" ht="13.5" customHeight="1">
       <c r="A40" s="18"/>
-      <c r="B40" s="271"/>
-      <c r="C40" s="163" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="163" t="s">
-        <v>191</v>
+      <c r="B40" s="165"/>
+      <c r="C40" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="161" t="s">
+        <v>181</v>
       </c>
       <c r="E40" s="62"/>
       <c r="F40" s="88"/>
@@ -7865,9 +7866,9 @@
     </row>
     <row r="41" spans="1:21" ht="13.5" customHeight="1">
       <c r="A41" s="18"/>
-      <c r="B41" s="271"/>
-      <c r="C41" s="272"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="62"/>
       <c r="F41" s="88"/>
       <c r="G41" s="88"/>
@@ -7888,10 +7889,10 @@
     <row r="42" spans="1:21" ht="13.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="57" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C42" s="58"/>
-      <c r="D42" s="162"/>
+      <c r="D42" s="160"/>
       <c r="E42" s="62"/>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
@@ -7911,12 +7912,12 @@
     </row>
     <row r="43" spans="1:21" ht="13.5" customHeight="1">
       <c r="A43" s="18"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="272" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="163" t="s">
-        <v>193</v>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="161" t="s">
+        <v>183</v>
       </c>
       <c r="E43" s="62"/>
       <c r="F43" s="88"/>
@@ -7937,12 +7938,12 @@
     </row>
     <row r="44" spans="1:21" ht="13.5" customHeight="1">
       <c r="A44" s="18"/>
-      <c r="B44" s="271"/>
-      <c r="C44" s="272" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="163" t="s">
-        <v>195</v>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="161" t="s">
+        <v>185</v>
       </c>
       <c r="E44" s="62"/>
       <c r="F44" s="88"/>
@@ -7963,12 +7964,12 @@
     </row>
     <row r="45" spans="1:21" ht="13.5" customHeight="1">
       <c r="A45" s="18"/>
-      <c r="B45" s="271"/>
-      <c r="C45" s="272" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="163" t="s">
-        <v>197</v>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="161" t="s">
+        <v>187</v>
       </c>
       <c r="E45" s="62"/>
       <c r="F45" s="88"/>
@@ -7989,12 +7990,12 @@
     </row>
     <row r="46" spans="1:21" ht="13.5" customHeight="1">
       <c r="A46" s="18"/>
-      <c r="B46" s="271"/>
-      <c r="C46" s="272" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="163" t="s">
-        <v>198</v>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="161" t="s">
+        <v>188</v>
       </c>
       <c r="E46" s="62"/>
       <c r="F46" s="88"/>
@@ -8016,12 +8017,12 @@
     </row>
     <row r="47" spans="1:21" ht="13.5" customHeight="1">
       <c r="A47" s="18"/>
-      <c r="B47" s="271"/>
-      <c r="C47" s="272" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="163" t="s">
-        <v>200</v>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="161" t="s">
+        <v>190</v>
       </c>
       <c r="E47" s="62"/>
       <c r="F47" s="88"/>
@@ -8045,7 +8046,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="57"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="162"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="62"/>
       <c r="F48" s="88"/>
       <c r="G48" s="88"/>
@@ -8065,11 +8066,11 @@
     </row>
     <row r="49" spans="1:21" ht="13.5" customHeight="1">
       <c r="A49" s="18"/>
-      <c r="B49" s="268" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="269"/>
-      <c r="D49" s="270"/>
+      <c r="B49" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="163"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="62"/>
       <c r="F49" s="88"/>
       <c r="G49" s="88"/>
@@ -8090,10 +8091,10 @@
     <row r="50" spans="1:21" ht="13.5" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C50" s="58"/>
-      <c r="D50" s="162"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="62"/>
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
@@ -8113,12 +8114,12 @@
     </row>
     <row r="51" spans="1:21" ht="13.5" customHeight="1">
       <c r="A51" s="18"/>
-      <c r="B51" s="271"/>
-      <c r="C51" s="272" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="288" t="s">
-        <v>166</v>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="167" t="s">
+        <v>156</v>
       </c>
       <c r="E51" s="62"/>
       <c r="F51" s="88" t="s">
@@ -8141,16 +8142,18 @@
     </row>
     <row r="52" spans="1:21" ht="13.5" customHeight="1">
       <c r="A52" s="18"/>
-      <c r="B52" s="271"/>
-      <c r="C52" s="272" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="288" t="s">
-        <v>167</v>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="167" t="s">
+        <v>157</v>
       </c>
       <c r="E52" s="62"/>
       <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
+      <c r="G52" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="H52" s="88"/>
       <c r="I52" s="88"/>
       <c r="J52" s="88"/>
@@ -8167,12 +8170,12 @@
     </row>
     <row r="53" spans="1:21" ht="13.5" customHeight="1">
       <c r="A53" s="18"/>
-      <c r="B53" s="271"/>
-      <c r="C53" s="272" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="288" t="s">
-        <v>201</v>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="167" t="s">
+        <v>191</v>
       </c>
       <c r="E53" s="62"/>
       <c r="F53" s="88"/>
@@ -8193,9 +8196,9 @@
     </row>
     <row r="54" spans="1:21" ht="13.5" customHeight="1">
       <c r="A54" s="18"/>
-      <c r="B54" s="271"/>
-      <c r="C54" s="272"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="161"/>
       <c r="E54" s="62"/>
       <c r="F54" s="88"/>
       <c r="G54" s="88"/>
@@ -8216,10 +8219,10 @@
     <row r="55" spans="1:21" ht="13.5" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="57" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C55" s="58"/>
-      <c r="D55" s="162"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="62"/>
       <c r="F55" s="88"/>
       <c r="G55" s="88"/>
@@ -8239,12 +8242,12 @@
     </row>
     <row r="56" spans="1:21" ht="13.5" customHeight="1">
       <c r="A56" s="18"/>
-      <c r="B56" s="271"/>
-      <c r="C56" s="272" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="288" t="s">
-        <v>207</v>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="167" t="s">
+        <v>197</v>
       </c>
       <c r="E56" s="62"/>
       <c r="F56" s="88"/>
@@ -8265,12 +8268,12 @@
     </row>
     <row r="57" spans="1:21" ht="13.5" customHeight="1">
       <c r="A57" s="18"/>
-      <c r="B57" s="271"/>
-      <c r="C57" s="272" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="288" t="s">
-        <v>204</v>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="167" t="s">
+        <v>194</v>
       </c>
       <c r="E57" s="62"/>
       <c r="F57" s="88"/>
@@ -8291,12 +8294,12 @@
     </row>
     <row r="58" spans="1:21" ht="13.5" customHeight="1">
       <c r="A58" s="18"/>
-      <c r="B58" s="271"/>
-      <c r="C58" s="272" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="288" t="s">
-        <v>205</v>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="167" t="s">
+        <v>195</v>
       </c>
       <c r="E58" s="62"/>
       <c r="F58" s="88"/>
@@ -8317,12 +8320,12 @@
     </row>
     <row r="59" spans="1:21" ht="13.5" customHeight="1">
       <c r="A59" s="18"/>
-      <c r="B59" s="271"/>
-      <c r="C59" s="272" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="288" t="s">
-        <v>208</v>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="167" t="s">
+        <v>198</v>
       </c>
       <c r="E59" s="62"/>
       <c r="F59" s="88"/>
@@ -8343,12 +8346,12 @@
     </row>
     <row r="60" spans="1:21" ht="13.5" customHeight="1">
       <c r="A60" s="18"/>
-      <c r="B60" s="271"/>
-      <c r="C60" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="288" t="s">
-        <v>209</v>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="167" t="s">
+        <v>199</v>
       </c>
       <c r="E60" s="62"/>
       <c r="F60" s="88"/>
@@ -8370,12 +8373,12 @@
     </row>
     <row r="61" spans="1:21" ht="13.5" customHeight="1">
       <c r="A61" s="18"/>
-      <c r="B61" s="271"/>
-      <c r="C61" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="163" t="s">
-        <v>169</v>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="161" t="s">
+        <v>159</v>
       </c>
       <c r="E61" s="62"/>
       <c r="F61" s="88"/>
@@ -8397,9 +8400,9 @@
     </row>
     <row r="62" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A62" s="18"/>
-      <c r="B62" s="271"/>
-      <c r="C62" s="272"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="161"/>
       <c r="E62" s="62"/>
       <c r="F62" s="88"/>
       <c r="G62" s="88"/>
@@ -8448,7 +8451,7 @@
       <c r="A64" s="22"/>
       <c r="B64" s="67"/>
       <c r="C64" s="68"/>
-      <c r="D64" s="162" t="s">
+      <c r="D64" s="160" t="s">
         <v>24</v>
       </c>
       <c r="E64" s="87"/>
@@ -8472,7 +8475,7 @@
       <c r="A65" s="22"/>
       <c r="B65" s="67"/>
       <c r="C65" s="69"/>
-      <c r="D65" s="162" t="s">
+      <c r="D65" s="160" t="s">
         <v>25</v>
       </c>
       <c r="E65" s="90"/>
@@ -8498,7 +8501,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="69"/>
-      <c r="D66" s="162"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="90"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -8520,7 +8523,7 @@
       <c r="A67" s="22"/>
       <c r="B67" s="67"/>
       <c r="C67" s="69"/>
-      <c r="D67" s="162"/>
+      <c r="D67" s="160"/>
       <c r="E67" s="90"/>
       <c r="F67" s="88"/>
       <c r="G67" s="88"/>
@@ -8544,7 +8547,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="69"/>
-      <c r="D68" s="162"/>
+      <c r="D68" s="160"/>
       <c r="E68" s="90"/>
       <c r="F68" s="88"/>
       <c r="G68" s="88"/>
@@ -8564,16 +8567,18 @@
     </row>
     <row r="69" spans="1:20" ht="13.5" customHeight="1">
       <c r="A69" s="22"/>
-      <c r="B69" s="285" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="286"/>
-      <c r="D69" s="287"/>
+      <c r="B69" s="236" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="237"/>
+      <c r="D69" s="238"/>
       <c r="E69" s="90"/>
       <c r="F69" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="88"/>
+      <c r="G69" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="H69" s="88"/>
       <c r="I69" s="88"/>
       <c r="J69" s="88"/>
@@ -8590,11 +8595,11 @@
     </row>
     <row r="70" spans="1:20" ht="13.5" customHeight="1">
       <c r="A70" s="22"/>
-      <c r="B70" s="285" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="286"/>
-      <c r="D70" s="287"/>
+      <c r="B70" s="236" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="237"/>
+      <c r="D70" s="238"/>
       <c r="E70" s="90"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -8614,11 +8619,11 @@
     </row>
     <row r="71" spans="1:20" ht="13.5" customHeight="1">
       <c r="A71" s="22"/>
-      <c r="B71" s="285" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="286"/>
-      <c r="D71" s="287"/>
+      <c r="B71" s="236" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="237"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="90"/>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
@@ -8638,11 +8643,11 @@
     </row>
     <row r="72" spans="1:20" ht="13.5" customHeight="1">
       <c r="A72" s="22"/>
-      <c r="B72" s="285" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="286"/>
-      <c r="D72" s="287"/>
+      <c r="B72" s="236" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="237"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="90"/>
       <c r="F72" s="88"/>
       <c r="G72" s="88"/>
@@ -8662,11 +8667,11 @@
     </row>
     <row r="73" spans="1:20" ht="13.5" customHeight="1">
       <c r="A73" s="22"/>
-      <c r="B73" s="285" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="286"/>
-      <c r="D73" s="287"/>
+      <c r="B73" s="236" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="237"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="90"/>
       <c r="F73" s="88"/>
       <c r="G73" s="88"/>
@@ -8712,16 +8717,18 @@
       <c r="A75" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="282" t="s">
+      <c r="B75" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="283"/>
-      <c r="D75" s="284"/>
+      <c r="C75" s="240"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="23"/>
       <c r="F75" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G75" s="73"/>
+      <c r="G75" s="73" t="s">
+        <v>32</v>
+      </c>
       <c r="H75" s="73"/>
       <c r="I75" s="73"/>
       <c r="J75" s="73"/>
@@ -8738,11 +8745,11 @@
     </row>
     <row r="76" spans="1:20" ht="13.5" customHeight="1">
       <c r="A76" s="22"/>
-      <c r="B76" s="279" t="s">
+      <c r="B76" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="280"/>
-      <c r="D76" s="281"/>
+      <c r="C76" s="243"/>
+      <c r="D76" s="244"/>
       <c r="E76" s="24"/>
       <c r="F76" s="75" t="s">
         <v>34</v>
@@ -8764,11 +8771,11 @@
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1">
       <c r="A77" s="22"/>
-      <c r="B77" s="279" t="s">
+      <c r="B77" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="280"/>
-      <c r="D77" s="281"/>
+      <c r="C77" s="243"/>
+      <c r="D77" s="244"/>
       <c r="E77" s="25"/>
       <c r="F77" s="77">
         <v>44927</v>
@@ -8790,11 +8797,11 @@
     </row>
     <row r="78" spans="1:20" ht="11.25" thickBot="1">
       <c r="A78" s="26"/>
-      <c r="B78" s="276" t="s">
+      <c r="B78" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="277"/>
-      <c r="D78" s="278"/>
+      <c r="C78" s="246"/>
+      <c r="D78" s="247"/>
       <c r="E78" s="27"/>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
@@ -8822,16 +8829,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -8847,14 +8852,16 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:T75 JB75:JP75 SX75:TL75 ACT75:ADH75 AMP75:AND75 AWL75:AWZ75 BGH75:BGV75 BQD75:BQR75 BZZ75:CAN75 CJV75:CKJ75 CTR75:CUF75 DDN75:DEB75 DNJ75:DNX75 DXF75:DXT75 EHB75:EHP75 EQX75:ERL75 FAT75:FBH75 FKP75:FLD75 FUL75:FUZ75 GEH75:GEV75 GOD75:GOR75 GXZ75:GYN75 HHV75:HIJ75 HRR75:HSF75 IBN75:ICB75 ILJ75:ILX75 IVF75:IVT75 JFB75:JFP75 JOX75:JPL75 JYT75:JZH75 KIP75:KJD75 KSL75:KSZ75 LCH75:LCV75 LMD75:LMR75 LVZ75:LWN75 MFV75:MGJ75 MPR75:MQF75 MZN75:NAB75 NJJ75:NJX75 NTF75:NTT75 ODB75:ODP75 OMX75:ONL75 OWT75:OXH75 PGP75:PHD75 PQL75:PQZ75 QAH75:QAV75 QKD75:QKR75 QTZ75:QUN75 RDV75:REJ75 RNR75:ROF75 RXN75:RYB75 SHJ75:SHX75 SRF75:SRT75 TBB75:TBP75 TKX75:TLL75 TUT75:TVH75 UEP75:UFD75 UOL75:UOZ75 UYH75:UYV75 VID75:VIR75 VRZ75:VSN75 WBV75:WCJ75 WLR75:WMF75 WVN75:WWB75 F65611:T65611 JB65611:JP65611 SX65611:TL65611 ACT65611:ADH65611 AMP65611:AND65611 AWL65611:AWZ65611 BGH65611:BGV65611 BQD65611:BQR65611 BZZ65611:CAN65611 CJV65611:CKJ65611 CTR65611:CUF65611 DDN65611:DEB65611 DNJ65611:DNX65611 DXF65611:DXT65611 EHB65611:EHP65611 EQX65611:ERL65611 FAT65611:FBH65611 FKP65611:FLD65611 FUL65611:FUZ65611 GEH65611:GEV65611 GOD65611:GOR65611 GXZ65611:GYN65611 HHV65611:HIJ65611 HRR65611:HSF65611 IBN65611:ICB65611 ILJ65611:ILX65611 IVF65611:IVT65611 JFB65611:JFP65611 JOX65611:JPL65611 JYT65611:JZH65611 KIP65611:KJD65611 KSL65611:KSZ65611 LCH65611:LCV65611 LMD65611:LMR65611 LVZ65611:LWN65611 MFV65611:MGJ65611 MPR65611:MQF65611 MZN65611:NAB65611 NJJ65611:NJX65611 NTF65611:NTT65611 ODB65611:ODP65611 OMX65611:ONL65611 OWT65611:OXH65611 PGP65611:PHD65611 PQL65611:PQZ65611 QAH65611:QAV65611 QKD65611:QKR65611 QTZ65611:QUN65611 RDV65611:REJ65611 RNR65611:ROF65611 RXN65611:RYB65611 SHJ65611:SHX65611 SRF65611:SRT65611 TBB65611:TBP65611 TKX65611:TLL65611 TUT65611:TVH65611 UEP65611:UFD65611 UOL65611:UOZ65611 UYH65611:UYV65611 VID65611:VIR65611 VRZ65611:VSN65611 WBV65611:WCJ65611 WLR65611:WMF65611 WVN65611:WWB65611 F131147:T131147 JB131147:JP131147 SX131147:TL131147 ACT131147:ADH131147 AMP131147:AND131147 AWL131147:AWZ131147 BGH131147:BGV131147 BQD131147:BQR131147 BZZ131147:CAN131147 CJV131147:CKJ131147 CTR131147:CUF131147 DDN131147:DEB131147 DNJ131147:DNX131147 DXF131147:DXT131147 EHB131147:EHP131147 EQX131147:ERL131147 FAT131147:FBH131147 FKP131147:FLD131147 FUL131147:FUZ131147 GEH131147:GEV131147 GOD131147:GOR131147 GXZ131147:GYN131147 HHV131147:HIJ131147 HRR131147:HSF131147 IBN131147:ICB131147 ILJ131147:ILX131147 IVF131147:IVT131147 JFB131147:JFP131147 JOX131147:JPL131147 JYT131147:JZH131147 KIP131147:KJD131147 KSL131147:KSZ131147 LCH131147:LCV131147 LMD131147:LMR131147 LVZ131147:LWN131147 MFV131147:MGJ131147 MPR131147:MQF131147 MZN131147:NAB131147 NJJ131147:NJX131147 NTF131147:NTT131147 ODB131147:ODP131147 OMX131147:ONL131147 OWT131147:OXH131147 PGP131147:PHD131147 PQL131147:PQZ131147 QAH131147:QAV131147 QKD131147:QKR131147 QTZ131147:QUN131147 RDV131147:REJ131147 RNR131147:ROF131147 RXN131147:RYB131147 SHJ131147:SHX131147 SRF131147:SRT131147 TBB131147:TBP131147 TKX131147:TLL131147 TUT131147:TVH131147 UEP131147:UFD131147 UOL131147:UOZ131147 UYH131147:UYV131147 VID131147:VIR131147 VRZ131147:VSN131147 WBV131147:WCJ131147 WLR131147:WMF131147 WVN131147:WWB131147 F196683:T196683 JB196683:JP196683 SX196683:TL196683 ACT196683:ADH196683 AMP196683:AND196683 AWL196683:AWZ196683 BGH196683:BGV196683 BQD196683:BQR196683 BZZ196683:CAN196683 CJV196683:CKJ196683 CTR196683:CUF196683 DDN196683:DEB196683 DNJ196683:DNX196683 DXF196683:DXT196683 EHB196683:EHP196683 EQX196683:ERL196683 FAT196683:FBH196683 FKP196683:FLD196683 FUL196683:FUZ196683 GEH196683:GEV196683 GOD196683:GOR196683 GXZ196683:GYN196683 HHV196683:HIJ196683 HRR196683:HSF196683 IBN196683:ICB196683 ILJ196683:ILX196683 IVF196683:IVT196683 JFB196683:JFP196683 JOX196683:JPL196683 JYT196683:JZH196683 KIP196683:KJD196683 KSL196683:KSZ196683 LCH196683:LCV196683 LMD196683:LMR196683 LVZ196683:LWN196683 MFV196683:MGJ196683 MPR196683:MQF196683 MZN196683:NAB196683 NJJ196683:NJX196683 NTF196683:NTT196683 ODB196683:ODP196683 OMX196683:ONL196683 OWT196683:OXH196683 PGP196683:PHD196683 PQL196683:PQZ196683 QAH196683:QAV196683 QKD196683:QKR196683 QTZ196683:QUN196683 RDV196683:REJ196683 RNR196683:ROF196683 RXN196683:RYB196683 SHJ196683:SHX196683 SRF196683:SRT196683 TBB196683:TBP196683 TKX196683:TLL196683 TUT196683:TVH196683 UEP196683:UFD196683 UOL196683:UOZ196683 UYH196683:UYV196683 VID196683:VIR196683 VRZ196683:VSN196683 WBV196683:WCJ196683 WLR196683:WMF196683 WVN196683:WWB196683 F262219:T262219 JB262219:JP262219 SX262219:TL262219 ACT262219:ADH262219 AMP262219:AND262219 AWL262219:AWZ262219 BGH262219:BGV262219 BQD262219:BQR262219 BZZ262219:CAN262219 CJV262219:CKJ262219 CTR262219:CUF262219 DDN262219:DEB262219 DNJ262219:DNX262219 DXF262219:DXT262219 EHB262219:EHP262219 EQX262219:ERL262219 FAT262219:FBH262219 FKP262219:FLD262219 FUL262219:FUZ262219 GEH262219:GEV262219 GOD262219:GOR262219 GXZ262219:GYN262219 HHV262219:HIJ262219 HRR262219:HSF262219 IBN262219:ICB262219 ILJ262219:ILX262219 IVF262219:IVT262219 JFB262219:JFP262219 JOX262219:JPL262219 JYT262219:JZH262219 KIP262219:KJD262219 KSL262219:KSZ262219 LCH262219:LCV262219 LMD262219:LMR262219 LVZ262219:LWN262219 MFV262219:MGJ262219 MPR262219:MQF262219 MZN262219:NAB262219 NJJ262219:NJX262219 NTF262219:NTT262219 ODB262219:ODP262219 OMX262219:ONL262219 OWT262219:OXH262219 PGP262219:PHD262219 PQL262219:PQZ262219 QAH262219:QAV262219 QKD262219:QKR262219 QTZ262219:QUN262219 RDV262219:REJ262219 RNR262219:ROF262219 RXN262219:RYB262219 SHJ262219:SHX262219 SRF262219:SRT262219 TBB262219:TBP262219 TKX262219:TLL262219 TUT262219:TVH262219 UEP262219:UFD262219 UOL262219:UOZ262219 UYH262219:UYV262219 VID262219:VIR262219 VRZ262219:VSN262219 WBV262219:WCJ262219 WLR262219:WMF262219 WVN262219:WWB262219 F327755:T327755 JB327755:JP327755 SX327755:TL327755 ACT327755:ADH327755 AMP327755:AND327755 AWL327755:AWZ327755 BGH327755:BGV327755 BQD327755:BQR327755 BZZ327755:CAN327755 CJV327755:CKJ327755 CTR327755:CUF327755 DDN327755:DEB327755 DNJ327755:DNX327755 DXF327755:DXT327755 EHB327755:EHP327755 EQX327755:ERL327755 FAT327755:FBH327755 FKP327755:FLD327755 FUL327755:FUZ327755 GEH327755:GEV327755 GOD327755:GOR327755 GXZ327755:GYN327755 HHV327755:HIJ327755 HRR327755:HSF327755 IBN327755:ICB327755 ILJ327755:ILX327755 IVF327755:IVT327755 JFB327755:JFP327755 JOX327755:JPL327755 JYT327755:JZH327755 KIP327755:KJD327755 KSL327755:KSZ327755 LCH327755:LCV327755 LMD327755:LMR327755 LVZ327755:LWN327755 MFV327755:MGJ327755 MPR327755:MQF327755 MZN327755:NAB327755 NJJ327755:NJX327755 NTF327755:NTT327755 ODB327755:ODP327755 OMX327755:ONL327755 OWT327755:OXH327755 PGP327755:PHD327755 PQL327755:PQZ327755 QAH327755:QAV327755 QKD327755:QKR327755 QTZ327755:QUN327755 RDV327755:REJ327755 RNR327755:ROF327755 RXN327755:RYB327755 SHJ327755:SHX327755 SRF327755:SRT327755 TBB327755:TBP327755 TKX327755:TLL327755 TUT327755:TVH327755 UEP327755:UFD327755 UOL327755:UOZ327755 UYH327755:UYV327755 VID327755:VIR327755 VRZ327755:VSN327755 WBV327755:WCJ327755 WLR327755:WMF327755 WVN327755:WWB327755 F393291:T393291 JB393291:JP393291 SX393291:TL393291 ACT393291:ADH393291 AMP393291:AND393291 AWL393291:AWZ393291 BGH393291:BGV393291 BQD393291:BQR393291 BZZ393291:CAN393291 CJV393291:CKJ393291 CTR393291:CUF393291 DDN393291:DEB393291 DNJ393291:DNX393291 DXF393291:DXT393291 EHB393291:EHP393291 EQX393291:ERL393291 FAT393291:FBH393291 FKP393291:FLD393291 FUL393291:FUZ393291 GEH393291:GEV393291 GOD393291:GOR393291 GXZ393291:GYN393291 HHV393291:HIJ393291 HRR393291:HSF393291 IBN393291:ICB393291 ILJ393291:ILX393291 IVF393291:IVT393291 JFB393291:JFP393291 JOX393291:JPL393291 JYT393291:JZH393291 KIP393291:KJD393291 KSL393291:KSZ393291 LCH393291:LCV393291 LMD393291:LMR393291 LVZ393291:LWN393291 MFV393291:MGJ393291 MPR393291:MQF393291 MZN393291:NAB393291 NJJ393291:NJX393291 NTF393291:NTT393291 ODB393291:ODP393291 OMX393291:ONL393291 OWT393291:OXH393291 PGP393291:PHD393291 PQL393291:PQZ393291 QAH393291:QAV393291 QKD393291:QKR393291 QTZ393291:QUN393291 RDV393291:REJ393291 RNR393291:ROF393291 RXN393291:RYB393291 SHJ393291:SHX393291 SRF393291:SRT393291 TBB393291:TBP393291 TKX393291:TLL393291 TUT393291:TVH393291 UEP393291:UFD393291 UOL393291:UOZ393291 UYH393291:UYV393291 VID393291:VIR393291 VRZ393291:VSN393291 WBV393291:WCJ393291 WLR393291:WMF393291 WVN393291:WWB393291 F458827:T458827 JB458827:JP458827 SX458827:TL458827 ACT458827:ADH458827 AMP458827:AND458827 AWL458827:AWZ458827 BGH458827:BGV458827 BQD458827:BQR458827 BZZ458827:CAN458827 CJV458827:CKJ458827 CTR458827:CUF458827 DDN458827:DEB458827 DNJ458827:DNX458827 DXF458827:DXT458827 EHB458827:EHP458827 EQX458827:ERL458827 FAT458827:FBH458827 FKP458827:FLD458827 FUL458827:FUZ458827 GEH458827:GEV458827 GOD458827:GOR458827 GXZ458827:GYN458827 HHV458827:HIJ458827 HRR458827:HSF458827 IBN458827:ICB458827 ILJ458827:ILX458827 IVF458827:IVT458827 JFB458827:JFP458827 JOX458827:JPL458827 JYT458827:JZH458827 KIP458827:KJD458827 KSL458827:KSZ458827 LCH458827:LCV458827 LMD458827:LMR458827 LVZ458827:LWN458827 MFV458827:MGJ458827 MPR458827:MQF458827 MZN458827:NAB458827 NJJ458827:NJX458827 NTF458827:NTT458827 ODB458827:ODP458827 OMX458827:ONL458827 OWT458827:OXH458827 PGP458827:PHD458827 PQL458827:PQZ458827 QAH458827:QAV458827 QKD458827:QKR458827 QTZ458827:QUN458827 RDV458827:REJ458827 RNR458827:ROF458827 RXN458827:RYB458827 SHJ458827:SHX458827 SRF458827:SRT458827 TBB458827:TBP458827 TKX458827:TLL458827 TUT458827:TVH458827 UEP458827:UFD458827 UOL458827:UOZ458827 UYH458827:UYV458827 VID458827:VIR458827 VRZ458827:VSN458827 WBV458827:WCJ458827 WLR458827:WMF458827 WVN458827:WWB458827 F524363:T524363 JB524363:JP524363 SX524363:TL524363 ACT524363:ADH524363 AMP524363:AND524363 AWL524363:AWZ524363 BGH524363:BGV524363 BQD524363:BQR524363 BZZ524363:CAN524363 CJV524363:CKJ524363 CTR524363:CUF524363 DDN524363:DEB524363 DNJ524363:DNX524363 DXF524363:DXT524363 EHB524363:EHP524363 EQX524363:ERL524363 FAT524363:FBH524363 FKP524363:FLD524363 FUL524363:FUZ524363 GEH524363:GEV524363 GOD524363:GOR524363 GXZ524363:GYN524363 HHV524363:HIJ524363 HRR524363:HSF524363 IBN524363:ICB524363 ILJ524363:ILX524363 IVF524363:IVT524363 JFB524363:JFP524363 JOX524363:JPL524363 JYT524363:JZH524363 KIP524363:KJD524363 KSL524363:KSZ524363 LCH524363:LCV524363 LMD524363:LMR524363 LVZ524363:LWN524363 MFV524363:MGJ524363 MPR524363:MQF524363 MZN524363:NAB524363 NJJ524363:NJX524363 NTF524363:NTT524363 ODB524363:ODP524363 OMX524363:ONL524363 OWT524363:OXH524363 PGP524363:PHD524363 PQL524363:PQZ524363 QAH524363:QAV524363 QKD524363:QKR524363 QTZ524363:QUN524363 RDV524363:REJ524363 RNR524363:ROF524363 RXN524363:RYB524363 SHJ524363:SHX524363 SRF524363:SRT524363 TBB524363:TBP524363 TKX524363:TLL524363 TUT524363:TVH524363 UEP524363:UFD524363 UOL524363:UOZ524363 UYH524363:UYV524363 VID524363:VIR524363 VRZ524363:VSN524363 WBV524363:WCJ524363 WLR524363:WMF524363 WVN524363:WWB524363 F589899:T589899 JB589899:JP589899 SX589899:TL589899 ACT589899:ADH589899 AMP589899:AND589899 AWL589899:AWZ589899 BGH589899:BGV589899 BQD589899:BQR589899 BZZ589899:CAN589899 CJV589899:CKJ589899 CTR589899:CUF589899 DDN589899:DEB589899 DNJ589899:DNX589899 DXF589899:DXT589899 EHB589899:EHP589899 EQX589899:ERL589899 FAT589899:FBH589899 FKP589899:FLD589899 FUL589899:FUZ589899 GEH589899:GEV589899 GOD589899:GOR589899 GXZ589899:GYN589899 HHV589899:HIJ589899 HRR589899:HSF589899 IBN589899:ICB589899 ILJ589899:ILX589899 IVF589899:IVT589899 JFB589899:JFP589899 JOX589899:JPL589899 JYT589899:JZH589899 KIP589899:KJD589899 KSL589899:KSZ589899 LCH589899:LCV589899 LMD589899:LMR589899 LVZ589899:LWN589899 MFV589899:MGJ589899 MPR589899:MQF589899 MZN589899:NAB589899 NJJ589899:NJX589899 NTF589899:NTT589899 ODB589899:ODP589899 OMX589899:ONL589899 OWT589899:OXH589899 PGP589899:PHD589899 PQL589899:PQZ589899 QAH589899:QAV589899 QKD589899:QKR589899 QTZ589899:QUN589899 RDV589899:REJ589899 RNR589899:ROF589899 RXN589899:RYB589899 SHJ589899:SHX589899 SRF589899:SRT589899 TBB589899:TBP589899 TKX589899:TLL589899 TUT589899:TVH589899 UEP589899:UFD589899 UOL589899:UOZ589899 UYH589899:UYV589899 VID589899:VIR589899 VRZ589899:VSN589899 WBV589899:WCJ589899 WLR589899:WMF589899 WVN589899:WWB589899 F655435:T655435 JB655435:JP655435 SX655435:TL655435 ACT655435:ADH655435 AMP655435:AND655435 AWL655435:AWZ655435 BGH655435:BGV655435 BQD655435:BQR655435 BZZ655435:CAN655435 CJV655435:CKJ655435 CTR655435:CUF655435 DDN655435:DEB655435 DNJ655435:DNX655435 DXF655435:DXT655435 EHB655435:EHP655435 EQX655435:ERL655435 FAT655435:FBH655435 FKP655435:FLD655435 FUL655435:FUZ655435 GEH655435:GEV655435 GOD655435:GOR655435 GXZ655435:GYN655435 HHV655435:HIJ655435 HRR655435:HSF655435 IBN655435:ICB655435 ILJ655435:ILX655435 IVF655435:IVT655435 JFB655435:JFP655435 JOX655435:JPL655435 JYT655435:JZH655435 KIP655435:KJD655435 KSL655435:KSZ655435 LCH655435:LCV655435 LMD655435:LMR655435 LVZ655435:LWN655435 MFV655435:MGJ655435 MPR655435:MQF655435 MZN655435:NAB655435 NJJ655435:NJX655435 NTF655435:NTT655435 ODB655435:ODP655435 OMX655435:ONL655435 OWT655435:OXH655435 PGP655435:PHD655435 PQL655435:PQZ655435 QAH655435:QAV655435 QKD655435:QKR655435 QTZ655435:QUN655435 RDV655435:REJ655435 RNR655435:ROF655435 RXN655435:RYB655435 SHJ655435:SHX655435 SRF655435:SRT655435 TBB655435:TBP655435 TKX655435:TLL655435 TUT655435:TVH655435 UEP655435:UFD655435 UOL655435:UOZ655435 UYH655435:UYV655435 VID655435:VIR655435 VRZ655435:VSN655435 WBV655435:WCJ655435 WLR655435:WMF655435 WVN655435:WWB655435 F720971:T720971 JB720971:JP720971 SX720971:TL720971 ACT720971:ADH720971 AMP720971:AND720971 AWL720971:AWZ720971 BGH720971:BGV720971 BQD720971:BQR720971 BZZ720971:CAN720971 CJV720971:CKJ720971 CTR720971:CUF720971 DDN720971:DEB720971 DNJ720971:DNX720971 DXF720971:DXT720971 EHB720971:EHP720971 EQX720971:ERL720971 FAT720971:FBH720971 FKP720971:FLD720971 FUL720971:FUZ720971 GEH720971:GEV720971 GOD720971:GOR720971 GXZ720971:GYN720971 HHV720971:HIJ720971 HRR720971:HSF720971 IBN720971:ICB720971 ILJ720971:ILX720971 IVF720971:IVT720971 JFB720971:JFP720971 JOX720971:JPL720971 JYT720971:JZH720971 KIP720971:KJD720971 KSL720971:KSZ720971 LCH720971:LCV720971 LMD720971:LMR720971 LVZ720971:LWN720971 MFV720971:MGJ720971 MPR720971:MQF720971 MZN720971:NAB720971 NJJ720971:NJX720971 NTF720971:NTT720971 ODB720971:ODP720971 OMX720971:ONL720971 OWT720971:OXH720971 PGP720971:PHD720971 PQL720971:PQZ720971 QAH720971:QAV720971 QKD720971:QKR720971 QTZ720971:QUN720971 RDV720971:REJ720971 RNR720971:ROF720971 RXN720971:RYB720971 SHJ720971:SHX720971 SRF720971:SRT720971 TBB720971:TBP720971 TKX720971:TLL720971 TUT720971:TVH720971 UEP720971:UFD720971 UOL720971:UOZ720971 UYH720971:UYV720971 VID720971:VIR720971 VRZ720971:VSN720971 WBV720971:WCJ720971 WLR720971:WMF720971 WVN720971:WWB720971 F786507:T786507 JB786507:JP786507 SX786507:TL786507 ACT786507:ADH786507 AMP786507:AND786507 AWL786507:AWZ786507 BGH786507:BGV786507 BQD786507:BQR786507 BZZ786507:CAN786507 CJV786507:CKJ786507 CTR786507:CUF786507 DDN786507:DEB786507 DNJ786507:DNX786507 DXF786507:DXT786507 EHB786507:EHP786507 EQX786507:ERL786507 FAT786507:FBH786507 FKP786507:FLD786507 FUL786507:FUZ786507 GEH786507:GEV786507 GOD786507:GOR786507 GXZ786507:GYN786507 HHV786507:HIJ786507 HRR786507:HSF786507 IBN786507:ICB786507 ILJ786507:ILX786507 IVF786507:IVT786507 JFB786507:JFP786507 JOX786507:JPL786507 JYT786507:JZH786507 KIP786507:KJD786507 KSL786507:KSZ786507 LCH786507:LCV786507 LMD786507:LMR786507 LVZ786507:LWN786507 MFV786507:MGJ786507 MPR786507:MQF786507 MZN786507:NAB786507 NJJ786507:NJX786507 NTF786507:NTT786507 ODB786507:ODP786507 OMX786507:ONL786507 OWT786507:OXH786507 PGP786507:PHD786507 PQL786507:PQZ786507 QAH786507:QAV786507 QKD786507:QKR786507 QTZ786507:QUN786507 RDV786507:REJ786507 RNR786507:ROF786507 RXN786507:RYB786507 SHJ786507:SHX786507 SRF786507:SRT786507 TBB786507:TBP786507 TKX786507:TLL786507 TUT786507:TVH786507 UEP786507:UFD786507 UOL786507:UOZ786507 UYH786507:UYV786507 VID786507:VIR786507 VRZ786507:VSN786507 WBV786507:WCJ786507 WLR786507:WMF786507 WVN786507:WWB786507 F852043:T852043 JB852043:JP852043 SX852043:TL852043 ACT852043:ADH852043 AMP852043:AND852043 AWL852043:AWZ852043 BGH852043:BGV852043 BQD852043:BQR852043 BZZ852043:CAN852043 CJV852043:CKJ852043 CTR852043:CUF852043 DDN852043:DEB852043 DNJ852043:DNX852043 DXF852043:DXT852043 EHB852043:EHP852043 EQX852043:ERL852043 FAT852043:FBH852043 FKP852043:FLD852043 FUL852043:FUZ852043 GEH852043:GEV852043 GOD852043:GOR852043 GXZ852043:GYN852043 HHV852043:HIJ852043 HRR852043:HSF852043 IBN852043:ICB852043 ILJ852043:ILX852043 IVF852043:IVT852043 JFB852043:JFP852043 JOX852043:JPL852043 JYT852043:JZH852043 KIP852043:KJD852043 KSL852043:KSZ852043 LCH852043:LCV852043 LMD852043:LMR852043 LVZ852043:LWN852043 MFV852043:MGJ852043 MPR852043:MQF852043 MZN852043:NAB852043 NJJ852043:NJX852043 NTF852043:NTT852043 ODB852043:ODP852043 OMX852043:ONL852043 OWT852043:OXH852043 PGP852043:PHD852043 PQL852043:PQZ852043 QAH852043:QAV852043 QKD852043:QKR852043 QTZ852043:QUN852043 RDV852043:REJ852043 RNR852043:ROF852043 RXN852043:RYB852043 SHJ852043:SHX852043 SRF852043:SRT852043 TBB852043:TBP852043 TKX852043:TLL852043 TUT852043:TVH852043 UEP852043:UFD852043 UOL852043:UOZ852043 UYH852043:UYV852043 VID852043:VIR852043 VRZ852043:VSN852043 WBV852043:WCJ852043 WLR852043:WMF852043 WVN852043:WWB852043 F917579:T917579 JB917579:JP917579 SX917579:TL917579 ACT917579:ADH917579 AMP917579:AND917579 AWL917579:AWZ917579 BGH917579:BGV917579 BQD917579:BQR917579 BZZ917579:CAN917579 CJV917579:CKJ917579 CTR917579:CUF917579 DDN917579:DEB917579 DNJ917579:DNX917579 DXF917579:DXT917579 EHB917579:EHP917579 EQX917579:ERL917579 FAT917579:FBH917579 FKP917579:FLD917579 FUL917579:FUZ917579 GEH917579:GEV917579 GOD917579:GOR917579 GXZ917579:GYN917579 HHV917579:HIJ917579 HRR917579:HSF917579 IBN917579:ICB917579 ILJ917579:ILX917579 IVF917579:IVT917579 JFB917579:JFP917579 JOX917579:JPL917579 JYT917579:JZH917579 KIP917579:KJD917579 KSL917579:KSZ917579 LCH917579:LCV917579 LMD917579:LMR917579 LVZ917579:LWN917579 MFV917579:MGJ917579 MPR917579:MQF917579 MZN917579:NAB917579 NJJ917579:NJX917579 NTF917579:NTT917579 ODB917579:ODP917579 OMX917579:ONL917579 OWT917579:OXH917579 PGP917579:PHD917579 PQL917579:PQZ917579 QAH917579:QAV917579 QKD917579:QKR917579 QTZ917579:QUN917579 RDV917579:REJ917579 RNR917579:ROF917579 RXN917579:RYB917579 SHJ917579:SHX917579 SRF917579:SRT917579 TBB917579:TBP917579 TKX917579:TLL917579 TUT917579:TVH917579 UEP917579:UFD917579 UOL917579:UOZ917579 UYH917579:UYV917579 VID917579:VIR917579 VRZ917579:VSN917579 WBV917579:WCJ917579 WLR917579:WMF917579 WVN917579:WWB917579 F983115:T983115 JB983115:JP983115 SX983115:TL983115 ACT983115:ADH983115 AMP983115:AND983115 AWL983115:AWZ983115 BGH983115:BGV983115 BQD983115:BQR983115 BZZ983115:CAN983115 CJV983115:CKJ983115 CTR983115:CUF983115 DDN983115:DEB983115 DNJ983115:DNX983115 DXF983115:DXT983115 EHB983115:EHP983115 EQX983115:ERL983115 FAT983115:FBH983115 FKP983115:FLD983115 FUL983115:FUZ983115 GEH983115:GEV983115 GOD983115:GOR983115 GXZ983115:GYN983115 HHV983115:HIJ983115 HRR983115:HSF983115 IBN983115:ICB983115 ILJ983115:ILX983115 IVF983115:IVT983115 JFB983115:JFP983115 JOX983115:JPL983115 JYT983115:JZH983115 KIP983115:KJD983115 KSL983115:KSZ983115 LCH983115:LCV983115 LMD983115:LMR983115 LVZ983115:LWN983115 MFV983115:MGJ983115 MPR983115:MQF983115 MZN983115:NAB983115 NJJ983115:NJX983115 NTF983115:NTT983115 ODB983115:ODP983115 OMX983115:ONL983115 OWT983115:OXH983115 PGP983115:PHD983115 PQL983115:PQZ983115 QAH983115:QAV983115 QKD983115:QKR983115 QTZ983115:QUN983115 RDV983115:REJ983115 RNR983115:ROF983115 RXN983115:RYB983115 SHJ983115:SHX983115 SRF983115:SRT983115 TBB983115:TBP983115 TKX983115:TLL983115 TUT983115:TVH983115 UEP983115:UFD983115 UOL983115:UOZ983115 UYH983115:UYV983115 VID983115:VIR983115 VRZ983115:VSN983115 WBV983115:WCJ983115 WLR983115:WMF983115 WVN983115:WWB983115">
@@ -8876,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8893,77 +8900,77 @@
     <col min="20" max="20" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="160" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:22" s="158" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="273" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="156"/>
+      <c r="N1" s="273" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="158"/>
-      <c r="N1" s="252" t="s">
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+    </row>
+    <row r="3" spans="1:22" ht="35.25" customHeight="1">
+      <c r="A3" s="274" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="274" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-    </row>
-    <row r="3" spans="1:22" ht="35.25" customHeight="1">
-      <c r="A3" s="253" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="253" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="253" t="s">
+      <c r="L3" s="272"/>
+      <c r="N3" s="275" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="274" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="274" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="274" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="251" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="251"/>
-      <c r="N3" s="254" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="253" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="253" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="253" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="244" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="244"/>
+      <c r="S3" s="265" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="265"/>
     </row>
     <row r="4" spans="1:22" ht="48" customHeight="1">
-      <c r="A4" s="253"/>
-      <c r="B4" s="253"/>
+      <c r="A4" s="274"/>
+      <c r="B4" s="274"/>
       <c r="C4" s="131" t="s">
         <v>30</v>
       </c>
@@ -8986,14 +8993,14 @@
         <v>40</v>
       </c>
       <c r="J4" s="124"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="S4" s="244"/>
-      <c r="T4" s="244"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="N4" s="275"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="S4" s="265"/>
+      <c r="T4" s="265"/>
     </row>
     <row r="5" spans="1:22" ht="28.5" customHeight="1">
       <c r="A5" s="144"/>
@@ -9008,10 +9015,10 @@
       <c r="H5" s="144"/>
       <c r="I5" s="144"/>
       <c r="J5" s="145"/>
-      <c r="K5" s="205" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="205"/>
+      <c r="K5" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="168"/>
       <c r="N5" s="34">
         <v>1</v>
       </c>
@@ -9024,8 +9031,8 @@
       <c r="Q5" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="244"/>
-      <c r="T5" s="244"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="265"/>
     </row>
     <row r="6" spans="1:22" ht="39" customHeight="1">
       <c r="A6" s="34">
@@ -9052,8 +9059,8 @@
       <c r="H6" s="141"/>
       <c r="I6" s="141"/>
       <c r="J6" s="145"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="205"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
       <c r="N6" s="34">
         <v>2</v>
       </c>
@@ -9061,13 +9068,13 @@
         <v>89</v>
       </c>
       <c r="P6" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="244"/>
-      <c r="T6" s="244"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="265"/>
     </row>
     <row r="7" spans="1:22" ht="40.5" customHeight="1">
       <c r="A7" s="34">
@@ -9094,8 +9101,8 @@
       <c r="H7" s="141"/>
       <c r="I7" s="141"/>
       <c r="J7" s="145"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
       <c r="N7" s="34">
         <v>3</v>
       </c>
@@ -9108,8 +9115,8 @@
       <c r="Q7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="244"/>
-      <c r="T7" s="244"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
     </row>
     <row r="8" spans="1:22" ht="30">
       <c r="A8" s="34">
@@ -9126,8 +9133,8 @@
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="145"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
       <c r="N8" s="34">
         <v>4</v>
       </c>
@@ -9140,8 +9147,8 @@
       <c r="Q8" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="265"/>
     </row>
     <row r="9" spans="1:22" ht="30">
       <c r="A9" s="34">
@@ -9156,8 +9163,8 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="145"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
       <c r="N9" s="34">
         <v>5</v>
       </c>
@@ -9170,8 +9177,8 @@
       <c r="Q9" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="244"/>
-      <c r="T9" s="244"/>
+      <c r="S9" s="265"/>
+      <c r="T9" s="265"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="34">
@@ -9186,16 +9193,16 @@
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="145"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
       <c r="N10" s="34">
         <v>6</v>
       </c>
       <c r="O10" s="135"/>
       <c r="P10" s="136"/>
       <c r="Q10" s="34"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="244"/>
+      <c r="S10" s="265"/>
+      <c r="T10" s="265"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="34">
@@ -9210,16 +9217,16 @@
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="145"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
       <c r="N11" s="34">
         <v>7</v>
       </c>
       <c r="O11" s="135"/>
       <c r="P11" s="136"/>
       <c r="Q11" s="34"/>
-      <c r="S11" s="244"/>
-      <c r="T11" s="244"/>
+      <c r="S11" s="265"/>
+      <c r="T11" s="265"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="34">
@@ -9234,16 +9241,16 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="145"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
       <c r="N12" s="34">
         <v>8</v>
       </c>
       <c r="O12" s="135"/>
       <c r="P12" s="136"/>
       <c r="Q12" s="34"/>
-      <c r="S12" s="244"/>
-      <c r="T12" s="244"/>
+      <c r="S12" s="265"/>
+      <c r="T12" s="265"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="34" t="s">
@@ -9260,16 +9267,16 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="145"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
       <c r="N13" s="34">
         <v>9</v>
       </c>
       <c r="O13" s="135"/>
       <c r="P13" s="136"/>
       <c r="Q13" s="34"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="244"/>
+      <c r="S13" s="265"/>
+      <c r="T13" s="265"/>
     </row>
     <row r="14" spans="1:22" ht="25.5" customHeight="1">
       <c r="A14" s="142"/>
@@ -9284,18 +9291,18 @@
       <c r="H14" s="142"/>
       <c r="I14" s="142"/>
       <c r="J14" s="145"/>
-      <c r="K14" s="245" t="s">
+      <c r="K14" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="246"/>
+      <c r="L14" s="267"/>
       <c r="N14" s="34">
         <v>10</v>
       </c>
       <c r="O14" s="135"/>
       <c r="P14" s="136"/>
       <c r="Q14" s="34"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="244"/>
+      <c r="S14" s="265"/>
+      <c r="T14" s="265"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="34">
@@ -9314,16 +9321,16 @@
       <c r="H15" s="141"/>
       <c r="I15" s="141"/>
       <c r="J15" s="145"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="248"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="269"/>
       <c r="N15" s="34">
         <v>11</v>
       </c>
       <c r="O15" s="135"/>
       <c r="P15" s="136"/>
       <c r="Q15" s="34"/>
-      <c r="S15" s="244"/>
-      <c r="T15" s="244"/>
+      <c r="S15" s="265"/>
+      <c r="T15" s="265"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="34">
@@ -9348,16 +9355,16 @@
       <c r="H16" s="141"/>
       <c r="I16" s="141"/>
       <c r="J16" s="145"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="248"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="269"/>
       <c r="N16" s="34">
         <v>12</v>
       </c>
       <c r="O16" s="135"/>
       <c r="P16" s="136"/>
       <c r="Q16" s="34"/>
-      <c r="S16" s="244"/>
-      <c r="T16" s="244"/>
+      <c r="S16" s="265"/>
+      <c r="T16" s="265"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="34">
@@ -9376,16 +9383,16 @@
       <c r="H17" s="141"/>
       <c r="I17" s="141"/>
       <c r="J17" s="145"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="248"/>
+      <c r="K17" s="268"/>
+      <c r="L17" s="269"/>
       <c r="N17" s="34">
         <v>13</v>
       </c>
       <c r="O17" s="135"/>
       <c r="P17" s="136"/>
       <c r="Q17" s="34"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="244"/>
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="34">
@@ -9406,16 +9413,16 @@
       <c r="H18" s="141"/>
       <c r="I18" s="141"/>
       <c r="J18" s="145"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="248"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="269"/>
       <c r="N18" s="34">
         <v>14</v>
       </c>
       <c r="O18" s="135"/>
       <c r="P18" s="136"/>
       <c r="Q18" s="34"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="244"/>
+      <c r="S18" s="265"/>
+      <c r="T18" s="265"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="34">
@@ -9434,16 +9441,16 @@
       <c r="H19" s="141"/>
       <c r="I19" s="141"/>
       <c r="J19" s="145"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="248"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="269"/>
       <c r="N19" s="34">
         <v>15</v>
       </c>
       <c r="O19" s="135"/>
       <c r="P19" s="136"/>
       <c r="Q19" s="34"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="244"/>
+      <c r="S19" s="265"/>
+      <c r="T19" s="265"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="34">
@@ -9462,24 +9469,24 @@
       <c r="H20" s="141"/>
       <c r="I20" s="141"/>
       <c r="J20" s="145"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="248"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="269"/>
       <c r="N20" s="34">
         <v>16</v>
       </c>
       <c r="O20" s="135"/>
       <c r="P20" s="136"/>
       <c r="Q20" s="34"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="244"/>
+      <c r="S20" s="265"/>
+      <c r="T20" s="265"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="34"/>
-      <c r="B21" s="155" t="s">
-        <v>105</v>
+      <c r="B21" s="153" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="141"/>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="154" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="141"/>
@@ -9488,14 +9495,14 @@
       <c r="H21" s="141"/>
       <c r="I21" s="141"/>
       <c r="J21" s="145"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="248"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="269"/>
       <c r="N21" s="34"/>
       <c r="O21" s="135"/>
       <c r="P21" s="136"/>
       <c r="Q21" s="34"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="244"/>
+      <c r="S21" s="265"/>
+      <c r="T21" s="265"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="34" t="s">
@@ -9512,16 +9519,16 @@
       <c r="H22" s="141"/>
       <c r="I22" s="141"/>
       <c r="J22" s="145"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="250"/>
+      <c r="K22" s="270"/>
+      <c r="L22" s="271"/>
       <c r="N22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="O22" s="135"/>
       <c r="P22" s="136"/>
       <c r="Q22" s="34"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="244"/>
+      <c r="S22" s="265"/>
+      <c r="T22" s="265"/>
     </row>
     <row r="23" spans="1:20">
       <c r="J23" s="125"/>
@@ -9634,10 +9641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9651,24 +9658,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="L1" s="255" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="L1" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
@@ -9676,66 +9683,66 @@
       <c r="T1" s="29"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="L3" s="254" t="s">
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="L3" s="275" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="253" t="s">
+      <c r="M3" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="253" t="s">
+      <c r="N3" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="253" t="s">
+      <c r="O3" s="274" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="256"/>
-      <c r="B4" s="256"/>
+      <c r="A4" s="277"/>
+      <c r="B4" s="277"/>
       <c r="C4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="287" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="288" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="I4" s="288" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>103</v>
       </c>
       <c r="J4" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="254"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
     </row>
     <row r="5" spans="1:20" ht="30">
       <c r="A5" s="32"/>
@@ -9750,296 +9757,302 @@
       <c r="H5" s="149"/>
       <c r="I5" s="149"/>
       <c r="J5" s="32"/>
-      <c r="L5" s="33">
+      <c r="L5" s="136">
         <v>1</v>
       </c>
-      <c r="M5" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="30" t="s">
+      <c r="M5" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="289" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="30">
       <c r="A6" s="30"/>
-      <c r="B6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="153" t="s">
+      <c r="B6" s="285" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="165" t="s">
+      <c r="G6" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="J6" s="152"/>
+      <c r="L6" s="136">
+        <v>2</v>
+      </c>
+      <c r="M6" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" s="290" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30">
+      <c r="A7" s="30"/>
+      <c r="B7" s="285" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="154"/>
-      <c r="L6" s="33">
-        <v>2</v>
-      </c>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="165" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="154"/>
-      <c r="L7" s="33">
+      <c r="J7" s="152"/>
+      <c r="L7" s="136">
         <v>3</v>
       </c>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="30" t="s">
+      <c r="M7" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" s="290" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="30"/>
-      <c r="B8" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="153" t="s">
+      <c r="B8" s="285" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="165" t="s">
+      <c r="F8" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="153" t="s">
+      <c r="G8" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="I8" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="154"/>
-      <c r="L8" s="33">
+      <c r="J8" s="152"/>
+      <c r="L8" s="136">
         <v>4</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="30"/>
-      <c r="B9" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="285" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="H9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="165" t="s">
+      <c r="I9" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="154"/>
-      <c r="L9" s="33">
+      <c r="J9" s="152"/>
+      <c r="L9" s="136">
         <v>5</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="30"/>
-      <c r="B10" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="153" t="s">
+      <c r="B10" s="285" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="165" t="s">
+      <c r="I10" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="154"/>
-      <c r="L10" s="33">
+      <c r="J10" s="152"/>
+      <c r="L10" s="136">
         <v>6</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="30"/>
-      <c r="B11" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="153" t="s">
+      <c r="B11" s="285" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="165" t="s">
+      <c r="H11" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="154"/>
-      <c r="L11" s="33">
+      <c r="J11" s="152"/>
+      <c r="L11" s="136">
         <v>7</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="30"/>
-      <c r="B12" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="153" t="s">
+      <c r="B12" s="285" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="153" t="s">
+      <c r="G12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="154"/>
-      <c r="L12" s="33">
+      <c r="H12" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="152"/>
+      <c r="L12" s="136">
         <v>8</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="30"/>
-      <c r="B13" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="165" t="s">
+      <c r="B13" s="285" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="165" t="s">
+      <c r="E13" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="165" t="s">
+      <c r="F13" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="165" t="s">
+      <c r="G13" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="154"/>
-      <c r="L13" s="33">
+      <c r="H13" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="152"/>
+      <c r="L13" s="136">
         <v>9</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="32"/>
@@ -10054,17 +10067,17 @@
       <c r="H14" s="149"/>
       <c r="I14" s="149"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="33">
+      <c r="L14" s="136">
         <v>15</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="30"/>
       <c r="B15" s="127" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>85</v>
@@ -10076,17 +10089,17 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="30"/>
-      <c r="L15" s="33">
+      <c r="L15" s="136">
         <v>16</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="30"/>
       <c r="B16" s="127" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
@@ -10101,22 +10114,20 @@
       <c r="G16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="30"/>
-      <c r="L16" s="33">
+      <c r="L16" s="136">
         <v>17</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="30"/>
       <c r="B17" s="127" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
@@ -10128,45 +10139,88 @@
       <c r="F17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="30"/>
-      <c r="L17" s="33">
-        <v>18</v>
-      </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="30"/>
       <c r="B18" s="127" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="30"/>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="L19" s="136">
+        <v>18</v>
+      </c>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="30"/>
+      <c r="L20" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="B19" s="164" t="s">
-        <v>132</v>
-      </c>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10369,28 +10423,28 @@
     </row>
     <row r="9" spans="1:9" ht="42.75" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="260" t="s">
+      <c r="B9" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="262"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="283"/>
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="260" t="s">
+      <c r="B10" s="281" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="262"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="282"/>
+      <c r="H10" s="283"/>
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
@@ -10624,7 +10678,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52"/>
-      <c r="B32" s="257"/>
+      <c r="B32" s="278"/>
       <c r="C32" s="53"/>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
@@ -10634,7 +10688,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="52"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="279"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
       <c r="E33" s="52"/>
@@ -10644,7 +10698,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52"/>
-      <c r="B34" s="258"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53"/>
       <c r="E34" s="52"/>
@@ -10654,7 +10708,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52"/>
-      <c r="B35" s="258"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="52"/>
@@ -10664,7 +10718,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52"/>
-      <c r="B36" s="258"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
       <c r="E36" s="52"/>
@@ -10674,7 +10728,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52"/>
-      <c r="B37" s="259"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53"/>
       <c r="E37" s="52"/>
@@ -11138,7 +11192,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52"/>
-      <c r="B32" s="257"/>
+      <c r="B32" s="278"/>
       <c r="C32" s="53"/>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
@@ -11148,7 +11202,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="52"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="279"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
       <c r="E33" s="52"/>
@@ -11158,7 +11212,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52"/>
-      <c r="B34" s="258"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53"/>
       <c r="E34" s="52"/>
@@ -11168,7 +11222,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52"/>
-      <c r="B35" s="258"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="52"/>
@@ -11178,7 +11232,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52"/>
-      <c r="B36" s="258"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
       <c r="E36" s="52"/>
@@ -11188,7 +11242,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52"/>
-      <c r="B37" s="259"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53"/>
       <c r="E37" s="52"/>

--- a/pe_sample/SWT301-FINAL-PE-template_ANSWER.xlsx
+++ b/pe_sample/SWT301-FINAL-PE-template_ANSWER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q1_Unit test-case_ANSWER" sheetId="4" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="174">
   <si>
     <t>Function Code</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Pre -Condition</t>
-  </si>
-  <si>
     <t>Test Case Procedure</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Test environment</t>
-  </si>
-  <si>
     <t>UTCID03</t>
   </si>
   <si>
@@ -584,6 +578,255 @@
   </si>
   <si>
     <t>create class unsuccessfully &amp; red alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Status </t>
+  </si>
+  <si>
+    <t>Pre -Condition (Data/Enviroment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALES.MGT.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The cashier initiates the “Create an order” use case by selecting the menu “Create new order” on the system
+2. The cashier asks the customer if he/she would like to record his/her purchase for membership benefits (by asking the customer the phone number)
+3. The system activates the barcode reader to allow scanning products 
+4. The cashier scans the following products using the barcode reader: 
+- Product 1 (Barcode: 6789, Name: Lipovitan, Price: 10K, Quantity: 2)
+- Product 2 (Barcode: 2204, Name: Bò húc, Price: 13K, Quantity: 1)
+5. After scanning all of the desired products, the casher asks the customer for the preferred payment method (cash, wallet, card)
+6. The customer chooses the “Cash” payment option
+7. The cashier confirms the payment and finalizes the order
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1 For each scanned product, the system identifies the product details: id, name, price, quantity, promotion (if any) and adds the item into the order
+4.2 The system calculates the total order amount at whole: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>33K VNĐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7. The system updates the inventory accordingly, generates/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>prints the receipt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/bill and returns to the customer, update membership benefits (if any) 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SALES.MGT.02</t>
+  </si>
+  <si>
+    <t>BASIC FLOW</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE FLOW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify the creating an order - succesful scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[BARCODE READER] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify the creating an order - succesful scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[MANUALLY INPUT] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ENVINROMENT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- The barcode reader, printer are connected and functioning correctly
+- The card-reader/payment gateway device, is connected and functioning correctly
+- The cashier is logged into the system (appropriate authorization)
+- The POS system is available to process the new order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Product 1 (Barcode: 6789, Name: Lipovitan, Price: 10K, Quantity: 2)
+ - Product 2 (Barcode: 2204, Name: Bò húc, Price: 13K, Quantity: 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ENVINROMENT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- The printer is connected and functioning correctly, the barcode reader is malfuntioning
+- The card-reader/payment gateway device, is connected and functioning correctly
+- The cashier is logged into the system (appropriate authorization)
+- The POS system is available to process the new order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Product 1 (Barcode: 6789, Name: Lipovitan, Price: 10K, Quantity: 2)
+ - Product 2 (Barcode: 2204, Name: Bò húc, Price: 13K, Quantity: 1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The cashier initiates the “Create an order” use case by selecting the menu “Create new order” on the system
+2. The cashier asks the customer if he/she would like to record his/her purchase for membership benefits (by asking the customer the phone number)
+3. The casher manually enters the following products details including the product code and quantity via GUI
+- Product 1 (Barcode: 6789, Name: Lipovitan, Price: 10K, Quantity: 2)
+- Product 2 (Barcode: 2204, Name: Bò húc, Price: 13K, Quantity: 1)
+4. After inputing all of the desired products, the casher asks the customer for the preferred payment method (cash, wallet, card)
+5. The customer chooses the “Cash” payment option
+6. The cashier confirms the payment and finalizes the order
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.1 For each manually input product, the system identifies the product details: id, name, price, quantity, promotion (if any) and adds the item into the order
+3.2 The system calculates the total order amount at whole: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>33K VNĐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6. The system updates the inventory accordingly, generates/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>prints the receipt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/bill and returns to the customer, update membership benefits (if any) 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Jul-25. 2023</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1822,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,9 +1955,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="12" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="12" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,6 +2126,102 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1910,36 +2246,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1952,93 +2264,21 @@
     <xf numFmtId="49" fontId="4" fillId="15" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="15" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2047,6 +2287,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="12" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2400,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -3182,46 +3428,46 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="133"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="156"/>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="136" t="s">
         <v>3</v>
       </c>
@@ -3230,27 +3476,27 @@
       <c r="I3" s="137"/>
       <c r="J3" s="137"/>
       <c r="K3" s="138"/>
-      <c r="L3" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
+      <c r="L3" s="157" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
     </row>
     <row r="4" spans="1:22" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="129"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="135"/>
       <c r="E4" s="5"/>
       <c r="F4" s="136" t="s">
         <v>5</v>
@@ -3260,100 +3506,100 @@
       <c r="I4" s="137"/>
       <c r="J4" s="137"/>
       <c r="K4" s="138"/>
-      <c r="L4" s="141">
+      <c r="L4" s="139">
         <f xml:space="preserve"> IF([1]FunctionList!E6&lt;&gt;"N/A",SUM(C4*[1]FunctionList!E6/1000,- O7),"N/A")</f>
         <v>-3.0999999999999996</v>
       </c>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="143"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="141"/>
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="144"/>
+      <c r="C6" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="114" t="s">
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="115" t="s">
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="118" t="s">
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="119"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="150"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="120">
+      <c r="A7" s="126">
         <f>COUNTIF(F76:HQ76,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122">
+      <c r="B7" s="127"/>
+      <c r="C7" s="128">
         <f>COUNTIF(F76:HQ76,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122">
+      <c r="D7" s="129"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128">
         <f>SUM(O7,- A7,- C7)</f>
         <v>9</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="6">
         <f>COUNTIF(E75:HQ75,"N")</f>
         <v>0</v>
@@ -3366,15 +3612,15 @@
         <f>COUNTIF(E75:HQ75,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="125">
+      <c r="O7" s="131">
         <f>COUNTA(E9:HT9)</f>
         <v>10</v>
       </c>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="126"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="132"/>
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -3391,28 +3637,28 @@
         <v>13</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -3426,1773 +3672,1771 @@
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="80"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="83"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="82"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="82"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="83"/>
+      <c r="B13" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="82"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
+      <c r="B14" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="82" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="82"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="83"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="82"/>
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="83"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="82"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="83"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="82"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="83"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="82"/>
       <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="83"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="82"/>
       <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="83"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="82"/>
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" ht="13.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="83"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="82"/>
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="83"/>
+      <c r="B23" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="82"/>
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="83"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="82"/>
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="83"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="82"/>
     </row>
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="83"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="82"/>
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="83"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="82"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="83"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="82"/>
     </row>
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="83"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="82"/>
     </row>
     <row r="30" spans="1:21" ht="13.5" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="83"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="82"/>
     </row>
     <row r="31" spans="1:21" ht="13.5" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="83"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="82"/>
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="83"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="82"/>
     </row>
     <row r="33" spans="1:21" ht="13.5" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="83"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="82"/>
     </row>
     <row r="34" spans="1:21" ht="13.5" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="83"/>
+      <c r="B34" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="82"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="83"/>
+      <c r="B35" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="82"/>
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="82" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="83"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="82"/>
     </row>
     <row r="37" spans="1:21" ht="13.5" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="83"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="82"/>
     </row>
     <row r="38" spans="1:21" ht="13.5" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="98" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="83"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="82"/>
     </row>
     <row r="39" spans="1:21" ht="13.5" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="83"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="82"/>
       <c r="U39" s="18"/>
     </row>
     <row r="40" spans="1:21" ht="13.5" customHeight="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="83"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="82"/>
       <c r="U40" s="18"/>
     </row>
     <row r="41" spans="1:21" ht="13.5" customHeight="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="83"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="82"/>
     </row>
     <row r="42" spans="1:21" ht="13.5" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="83"/>
+      <c r="B42" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="82"/>
     </row>
     <row r="43" spans="1:21" ht="13.5" customHeight="1">
       <c r="A43" s="17"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="83"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="82"/>
     </row>
     <row r="44" spans="1:21" ht="13.5" customHeight="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="83"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="59"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="82"/>
     </row>
     <row r="45" spans="1:21" ht="13.5" customHeight="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="83"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="59"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="82"/>
     </row>
     <row r="46" spans="1:21" ht="13.5" customHeight="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="83"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="82"/>
       <c r="U46" s="18"/>
     </row>
     <row r="47" spans="1:21" ht="13.5" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="83"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="82"/>
       <c r="U47" s="18"/>
     </row>
     <row r="48" spans="1:21" ht="13.5" customHeight="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="83"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="82"/>
     </row>
     <row r="49" spans="1:21" ht="13.5" customHeight="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="83"/>
+      <c r="B49" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="82"/>
     </row>
     <row r="50" spans="1:21" ht="13.5" customHeight="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="83"/>
+      <c r="B50" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="82"/>
     </row>
     <row r="51" spans="1:21" ht="13.5" customHeight="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="82" t="s">
+      <c r="B51" s="101"/>
+      <c r="C51" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="83"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="82"/>
     </row>
     <row r="52" spans="1:21" ht="13.5" customHeight="1">
       <c r="A52" s="17"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82" t="s">
+      <c r="B52" s="101"/>
+      <c r="C52" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="83"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="T52" s="82"/>
     </row>
     <row r="53" spans="1:21" ht="13.5" customHeight="1">
       <c r="A53" s="17"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="83"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="82"/>
     </row>
     <row r="54" spans="1:21" ht="13.5" customHeight="1">
       <c r="A54" s="17"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="83"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="82"/>
     </row>
     <row r="55" spans="1:21" ht="13.5" customHeight="1">
       <c r="A55" s="17"/>
-      <c r="B55" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="83"/>
+      <c r="B55" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="82"/>
     </row>
     <row r="56" spans="1:21" ht="13.5" customHeight="1">
       <c r="A56" s="17"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="83"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
+      <c r="T56" s="82"/>
     </row>
     <row r="57" spans="1:21" ht="13.5" customHeight="1">
       <c r="A57" s="17"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="83"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="81"/>
+      <c r="S57" s="81"/>
+      <c r="T57" s="82"/>
     </row>
     <row r="58" spans="1:21" ht="13.5" customHeight="1">
       <c r="A58" s="17"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="83"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="82"/>
     </row>
     <row r="59" spans="1:21" ht="13.5" customHeight="1">
       <c r="A59" s="17"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="60"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="83"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
+      <c r="T59" s="82"/>
     </row>
     <row r="60" spans="1:21" ht="13.5" customHeight="1">
       <c r="A60" s="17"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="60"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="83"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="82"/>
       <c r="U60" s="18"/>
     </row>
     <row r="61" spans="1:21" ht="13.5" customHeight="1">
       <c r="A61" s="17"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="83"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="82"/>
       <c r="U61" s="18"/>
     </row>
     <row r="62" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A62" s="17"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="82"/>
-      <c r="T62" s="83"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="81"/>
+      <c r="S62" s="81"/>
+      <c r="T62" s="82"/>
       <c r="U62" s="18"/>
     </row>
     <row r="63" spans="1:21" ht="13.5" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
-      <c r="R63" s="79"/>
-      <c r="S63" s="79"/>
-      <c r="T63" s="80"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="79"/>
     </row>
     <row r="64" spans="1:21" ht="13.5" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="97" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="82"/>
-      <c r="T64" s="83"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="82"/>
     </row>
     <row r="65" spans="1:20" ht="13.5" customHeight="1">
       <c r="A65" s="21"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="97" t="s">
+      <c r="B65" s="60"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="84"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="82"/>
-      <c r="T65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="81"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="82"/>
     </row>
     <row r="66" spans="1:20" ht="13.5" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="82"/>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="82"/>
-      <c r="T66" s="83"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="81"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="82"/>
     </row>
     <row r="67" spans="1:20" ht="13.5" customHeight="1">
       <c r="A67" s="21"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="82"/>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="83"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="82"/>
     </row>
     <row r="68" spans="1:20" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="82"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="82"/>
-      <c r="T68" s="83"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="82"/>
     </row>
     <row r="69" spans="1:20" ht="13.5" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="148"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="82" t="s">
+      <c r="B69" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="115"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="82" t="s">
+      <c r="G69" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
-      <c r="P69" s="82"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="82"/>
-      <c r="T69" s="83"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="82"/>
     </row>
     <row r="70" spans="1:20" ht="13.5" customHeight="1">
       <c r="A70" s="21"/>
-      <c r="B70" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="148"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="82"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="82"/>
-      <c r="P70" s="82"/>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="82"/>
-      <c r="T70" s="83"/>
+      <c r="B70" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="115"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="82"/>
     </row>
     <row r="71" spans="1:20" ht="13.5" customHeight="1">
       <c r="A71" s="21"/>
-      <c r="B71" s="147" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="148"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="82"/>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="83"/>
+      <c r="B71" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="115"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="82"/>
     </row>
     <row r="72" spans="1:20" ht="13.5" customHeight="1">
       <c r="A72" s="21"/>
-      <c r="B72" s="147" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="148"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="82"/>
-      <c r="M72" s="82"/>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="82"/>
-      <c r="T72" s="83"/>
+      <c r="B72" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="115"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="81"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
+      <c r="T72" s="82"/>
     </row>
     <row r="73" spans="1:20" ht="13.5" customHeight="1">
       <c r="A73" s="21"/>
-      <c r="B73" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="148"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
-      <c r="Q73" s="82"/>
-      <c r="R73" s="82"/>
-      <c r="S73" s="82"/>
-      <c r="T73" s="83"/>
+      <c r="B73" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="115"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="81"/>
+      <c r="T73" s="82"/>
     </row>
     <row r="74" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="64" t="s">
+      <c r="B74" s="64"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="82"/>
-      <c r="P74" s="82"/>
-      <c r="Q74" s="82"/>
-      <c r="R74" s="82"/>
-      <c r="S74" s="82"/>
-      <c r="T74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="82"/>
     </row>
     <row r="75" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
       <c r="A75" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="153" t="s">
+      <c r="B75" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="154"/>
-      <c r="D75" s="155"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="119"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="67" t="s">
+      <c r="G75" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="67"/>
-      <c r="T75" s="68"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="67"/>
     </row>
     <row r="76" spans="1:20" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="157"/>
-      <c r="D76" s="158"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="122"/>
       <c r="E76" s="23"/>
-      <c r="F76" s="69" t="s">
+      <c r="F76" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="69"/>
-      <c r="R76" s="69"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="70"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="68"/>
+      <c r="S76" s="68"/>
+      <c r="T76" s="69"/>
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="156" t="s">
+      <c r="B77" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="157"/>
-      <c r="D77" s="158"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="24"/>
-      <c r="F77" s="71">
+      <c r="F77" s="70">
         <v>44927</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="72"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
+      <c r="R77" s="70"/>
+      <c r="S77" s="70"/>
+      <c r="T77" s="71"/>
     </row>
     <row r="78" spans="1:20" ht="11.25" thickBot="1">
       <c r="A78" s="25"/>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="145"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="73"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="73"/>
-      <c r="R78" s="73"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="74"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="73"/>
     </row>
     <row r="79" spans="1:20" ht="11.25" thickTop="1">
       <c r="A79" s="27"/>
     </row>
     <row r="82" spans="13:13" s="3" customFormat="1">
       <c r="M82" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -5208,14 +5452,16 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:T75 JB75:JP75 SX75:TL75 ACT75:ADH75 AMP75:AND75 AWL75:AWZ75 BGH75:BGV75 BQD75:BQR75 BZZ75:CAN75 CJV75:CKJ75 CTR75:CUF75 DDN75:DEB75 DNJ75:DNX75 DXF75:DXT75 EHB75:EHP75 EQX75:ERL75 FAT75:FBH75 FKP75:FLD75 FUL75:FUZ75 GEH75:GEV75 GOD75:GOR75 GXZ75:GYN75 HHV75:HIJ75 HRR75:HSF75 IBN75:ICB75 ILJ75:ILX75 IVF75:IVT75 JFB75:JFP75 JOX75:JPL75 JYT75:JZH75 KIP75:KJD75 KSL75:KSZ75 LCH75:LCV75 LMD75:LMR75 LVZ75:LWN75 MFV75:MGJ75 MPR75:MQF75 MZN75:NAB75 NJJ75:NJX75 NTF75:NTT75 ODB75:ODP75 OMX75:ONL75 OWT75:OXH75 PGP75:PHD75 PQL75:PQZ75 QAH75:QAV75 QKD75:QKR75 QTZ75:QUN75 RDV75:REJ75 RNR75:ROF75 RXN75:RYB75 SHJ75:SHX75 SRF75:SRT75 TBB75:TBP75 TKX75:TLL75 TUT75:TVH75 UEP75:UFD75 UOL75:UOZ75 UYH75:UYV75 VID75:VIR75 VRZ75:VSN75 WBV75:WCJ75 WLR75:WMF75 WVN75:WWB75 F65611:T65611 JB65611:JP65611 SX65611:TL65611 ACT65611:ADH65611 AMP65611:AND65611 AWL65611:AWZ65611 BGH65611:BGV65611 BQD65611:BQR65611 BZZ65611:CAN65611 CJV65611:CKJ65611 CTR65611:CUF65611 DDN65611:DEB65611 DNJ65611:DNX65611 DXF65611:DXT65611 EHB65611:EHP65611 EQX65611:ERL65611 FAT65611:FBH65611 FKP65611:FLD65611 FUL65611:FUZ65611 GEH65611:GEV65611 GOD65611:GOR65611 GXZ65611:GYN65611 HHV65611:HIJ65611 HRR65611:HSF65611 IBN65611:ICB65611 ILJ65611:ILX65611 IVF65611:IVT65611 JFB65611:JFP65611 JOX65611:JPL65611 JYT65611:JZH65611 KIP65611:KJD65611 KSL65611:KSZ65611 LCH65611:LCV65611 LMD65611:LMR65611 LVZ65611:LWN65611 MFV65611:MGJ65611 MPR65611:MQF65611 MZN65611:NAB65611 NJJ65611:NJX65611 NTF65611:NTT65611 ODB65611:ODP65611 OMX65611:ONL65611 OWT65611:OXH65611 PGP65611:PHD65611 PQL65611:PQZ65611 QAH65611:QAV65611 QKD65611:QKR65611 QTZ65611:QUN65611 RDV65611:REJ65611 RNR65611:ROF65611 RXN65611:RYB65611 SHJ65611:SHX65611 SRF65611:SRT65611 TBB65611:TBP65611 TKX65611:TLL65611 TUT65611:TVH65611 UEP65611:UFD65611 UOL65611:UOZ65611 UYH65611:UYV65611 VID65611:VIR65611 VRZ65611:VSN65611 WBV65611:WCJ65611 WLR65611:WMF65611 WVN65611:WWB65611 F131147:T131147 JB131147:JP131147 SX131147:TL131147 ACT131147:ADH131147 AMP131147:AND131147 AWL131147:AWZ131147 BGH131147:BGV131147 BQD131147:BQR131147 BZZ131147:CAN131147 CJV131147:CKJ131147 CTR131147:CUF131147 DDN131147:DEB131147 DNJ131147:DNX131147 DXF131147:DXT131147 EHB131147:EHP131147 EQX131147:ERL131147 FAT131147:FBH131147 FKP131147:FLD131147 FUL131147:FUZ131147 GEH131147:GEV131147 GOD131147:GOR131147 GXZ131147:GYN131147 HHV131147:HIJ131147 HRR131147:HSF131147 IBN131147:ICB131147 ILJ131147:ILX131147 IVF131147:IVT131147 JFB131147:JFP131147 JOX131147:JPL131147 JYT131147:JZH131147 KIP131147:KJD131147 KSL131147:KSZ131147 LCH131147:LCV131147 LMD131147:LMR131147 LVZ131147:LWN131147 MFV131147:MGJ131147 MPR131147:MQF131147 MZN131147:NAB131147 NJJ131147:NJX131147 NTF131147:NTT131147 ODB131147:ODP131147 OMX131147:ONL131147 OWT131147:OXH131147 PGP131147:PHD131147 PQL131147:PQZ131147 QAH131147:QAV131147 QKD131147:QKR131147 QTZ131147:QUN131147 RDV131147:REJ131147 RNR131147:ROF131147 RXN131147:RYB131147 SHJ131147:SHX131147 SRF131147:SRT131147 TBB131147:TBP131147 TKX131147:TLL131147 TUT131147:TVH131147 UEP131147:UFD131147 UOL131147:UOZ131147 UYH131147:UYV131147 VID131147:VIR131147 VRZ131147:VSN131147 WBV131147:WCJ131147 WLR131147:WMF131147 WVN131147:WWB131147 F196683:T196683 JB196683:JP196683 SX196683:TL196683 ACT196683:ADH196683 AMP196683:AND196683 AWL196683:AWZ196683 BGH196683:BGV196683 BQD196683:BQR196683 BZZ196683:CAN196683 CJV196683:CKJ196683 CTR196683:CUF196683 DDN196683:DEB196683 DNJ196683:DNX196683 DXF196683:DXT196683 EHB196683:EHP196683 EQX196683:ERL196683 FAT196683:FBH196683 FKP196683:FLD196683 FUL196683:FUZ196683 GEH196683:GEV196683 GOD196683:GOR196683 GXZ196683:GYN196683 HHV196683:HIJ196683 HRR196683:HSF196683 IBN196683:ICB196683 ILJ196683:ILX196683 IVF196683:IVT196683 JFB196683:JFP196683 JOX196683:JPL196683 JYT196683:JZH196683 KIP196683:KJD196683 KSL196683:KSZ196683 LCH196683:LCV196683 LMD196683:LMR196683 LVZ196683:LWN196683 MFV196683:MGJ196683 MPR196683:MQF196683 MZN196683:NAB196683 NJJ196683:NJX196683 NTF196683:NTT196683 ODB196683:ODP196683 OMX196683:ONL196683 OWT196683:OXH196683 PGP196683:PHD196683 PQL196683:PQZ196683 QAH196683:QAV196683 QKD196683:QKR196683 QTZ196683:QUN196683 RDV196683:REJ196683 RNR196683:ROF196683 RXN196683:RYB196683 SHJ196683:SHX196683 SRF196683:SRT196683 TBB196683:TBP196683 TKX196683:TLL196683 TUT196683:TVH196683 UEP196683:UFD196683 UOL196683:UOZ196683 UYH196683:UYV196683 VID196683:VIR196683 VRZ196683:VSN196683 WBV196683:WCJ196683 WLR196683:WMF196683 WVN196683:WWB196683 F262219:T262219 JB262219:JP262219 SX262219:TL262219 ACT262219:ADH262219 AMP262219:AND262219 AWL262219:AWZ262219 BGH262219:BGV262219 BQD262219:BQR262219 BZZ262219:CAN262219 CJV262219:CKJ262219 CTR262219:CUF262219 DDN262219:DEB262219 DNJ262219:DNX262219 DXF262219:DXT262219 EHB262219:EHP262219 EQX262219:ERL262219 FAT262219:FBH262219 FKP262219:FLD262219 FUL262219:FUZ262219 GEH262219:GEV262219 GOD262219:GOR262219 GXZ262219:GYN262219 HHV262219:HIJ262219 HRR262219:HSF262219 IBN262219:ICB262219 ILJ262219:ILX262219 IVF262219:IVT262219 JFB262219:JFP262219 JOX262219:JPL262219 JYT262219:JZH262219 KIP262219:KJD262219 KSL262219:KSZ262219 LCH262219:LCV262219 LMD262219:LMR262219 LVZ262219:LWN262219 MFV262219:MGJ262219 MPR262219:MQF262219 MZN262219:NAB262219 NJJ262219:NJX262219 NTF262219:NTT262219 ODB262219:ODP262219 OMX262219:ONL262219 OWT262219:OXH262219 PGP262219:PHD262219 PQL262219:PQZ262219 QAH262219:QAV262219 QKD262219:QKR262219 QTZ262219:QUN262219 RDV262219:REJ262219 RNR262219:ROF262219 RXN262219:RYB262219 SHJ262219:SHX262219 SRF262219:SRT262219 TBB262219:TBP262219 TKX262219:TLL262219 TUT262219:TVH262219 UEP262219:UFD262219 UOL262219:UOZ262219 UYH262219:UYV262219 VID262219:VIR262219 VRZ262219:VSN262219 WBV262219:WCJ262219 WLR262219:WMF262219 WVN262219:WWB262219 F327755:T327755 JB327755:JP327755 SX327755:TL327755 ACT327755:ADH327755 AMP327755:AND327755 AWL327755:AWZ327755 BGH327755:BGV327755 BQD327755:BQR327755 BZZ327755:CAN327755 CJV327755:CKJ327755 CTR327755:CUF327755 DDN327755:DEB327755 DNJ327755:DNX327755 DXF327755:DXT327755 EHB327755:EHP327755 EQX327755:ERL327755 FAT327755:FBH327755 FKP327755:FLD327755 FUL327755:FUZ327755 GEH327755:GEV327755 GOD327755:GOR327755 GXZ327755:GYN327755 HHV327755:HIJ327755 HRR327755:HSF327755 IBN327755:ICB327755 ILJ327755:ILX327755 IVF327755:IVT327755 JFB327755:JFP327755 JOX327755:JPL327755 JYT327755:JZH327755 KIP327755:KJD327755 KSL327755:KSZ327755 LCH327755:LCV327755 LMD327755:LMR327755 LVZ327755:LWN327755 MFV327755:MGJ327755 MPR327755:MQF327755 MZN327755:NAB327755 NJJ327755:NJX327755 NTF327755:NTT327755 ODB327755:ODP327755 OMX327755:ONL327755 OWT327755:OXH327755 PGP327755:PHD327755 PQL327755:PQZ327755 QAH327755:QAV327755 QKD327755:QKR327755 QTZ327755:QUN327755 RDV327755:REJ327755 RNR327755:ROF327755 RXN327755:RYB327755 SHJ327755:SHX327755 SRF327755:SRT327755 TBB327755:TBP327755 TKX327755:TLL327755 TUT327755:TVH327755 UEP327755:UFD327755 UOL327755:UOZ327755 UYH327755:UYV327755 VID327755:VIR327755 VRZ327755:VSN327755 WBV327755:WCJ327755 WLR327755:WMF327755 WVN327755:WWB327755 F393291:T393291 JB393291:JP393291 SX393291:TL393291 ACT393291:ADH393291 AMP393291:AND393291 AWL393291:AWZ393291 BGH393291:BGV393291 BQD393291:BQR393291 BZZ393291:CAN393291 CJV393291:CKJ393291 CTR393291:CUF393291 DDN393291:DEB393291 DNJ393291:DNX393291 DXF393291:DXT393291 EHB393291:EHP393291 EQX393291:ERL393291 FAT393291:FBH393291 FKP393291:FLD393291 FUL393291:FUZ393291 GEH393291:GEV393291 GOD393291:GOR393291 GXZ393291:GYN393291 HHV393291:HIJ393291 HRR393291:HSF393291 IBN393291:ICB393291 ILJ393291:ILX393291 IVF393291:IVT393291 JFB393291:JFP393291 JOX393291:JPL393291 JYT393291:JZH393291 KIP393291:KJD393291 KSL393291:KSZ393291 LCH393291:LCV393291 LMD393291:LMR393291 LVZ393291:LWN393291 MFV393291:MGJ393291 MPR393291:MQF393291 MZN393291:NAB393291 NJJ393291:NJX393291 NTF393291:NTT393291 ODB393291:ODP393291 OMX393291:ONL393291 OWT393291:OXH393291 PGP393291:PHD393291 PQL393291:PQZ393291 QAH393291:QAV393291 QKD393291:QKR393291 QTZ393291:QUN393291 RDV393291:REJ393291 RNR393291:ROF393291 RXN393291:RYB393291 SHJ393291:SHX393291 SRF393291:SRT393291 TBB393291:TBP393291 TKX393291:TLL393291 TUT393291:TVH393291 UEP393291:UFD393291 UOL393291:UOZ393291 UYH393291:UYV393291 VID393291:VIR393291 VRZ393291:VSN393291 WBV393291:WCJ393291 WLR393291:WMF393291 WVN393291:WWB393291 F458827:T458827 JB458827:JP458827 SX458827:TL458827 ACT458827:ADH458827 AMP458827:AND458827 AWL458827:AWZ458827 BGH458827:BGV458827 BQD458827:BQR458827 BZZ458827:CAN458827 CJV458827:CKJ458827 CTR458827:CUF458827 DDN458827:DEB458827 DNJ458827:DNX458827 DXF458827:DXT458827 EHB458827:EHP458827 EQX458827:ERL458827 FAT458827:FBH458827 FKP458827:FLD458827 FUL458827:FUZ458827 GEH458827:GEV458827 GOD458827:GOR458827 GXZ458827:GYN458827 HHV458827:HIJ458827 HRR458827:HSF458827 IBN458827:ICB458827 ILJ458827:ILX458827 IVF458827:IVT458827 JFB458827:JFP458827 JOX458827:JPL458827 JYT458827:JZH458827 KIP458827:KJD458827 KSL458827:KSZ458827 LCH458827:LCV458827 LMD458827:LMR458827 LVZ458827:LWN458827 MFV458827:MGJ458827 MPR458827:MQF458827 MZN458827:NAB458827 NJJ458827:NJX458827 NTF458827:NTT458827 ODB458827:ODP458827 OMX458827:ONL458827 OWT458827:OXH458827 PGP458827:PHD458827 PQL458827:PQZ458827 QAH458827:QAV458827 QKD458827:QKR458827 QTZ458827:QUN458827 RDV458827:REJ458827 RNR458827:ROF458827 RXN458827:RYB458827 SHJ458827:SHX458827 SRF458827:SRT458827 TBB458827:TBP458827 TKX458827:TLL458827 TUT458827:TVH458827 UEP458827:UFD458827 UOL458827:UOZ458827 UYH458827:UYV458827 VID458827:VIR458827 VRZ458827:VSN458827 WBV458827:WCJ458827 WLR458827:WMF458827 WVN458827:WWB458827 F524363:T524363 JB524363:JP524363 SX524363:TL524363 ACT524363:ADH524363 AMP524363:AND524363 AWL524363:AWZ524363 BGH524363:BGV524363 BQD524363:BQR524363 BZZ524363:CAN524363 CJV524363:CKJ524363 CTR524363:CUF524363 DDN524363:DEB524363 DNJ524363:DNX524363 DXF524363:DXT524363 EHB524363:EHP524363 EQX524363:ERL524363 FAT524363:FBH524363 FKP524363:FLD524363 FUL524363:FUZ524363 GEH524363:GEV524363 GOD524363:GOR524363 GXZ524363:GYN524363 HHV524363:HIJ524363 HRR524363:HSF524363 IBN524363:ICB524363 ILJ524363:ILX524363 IVF524363:IVT524363 JFB524363:JFP524363 JOX524363:JPL524363 JYT524363:JZH524363 KIP524363:KJD524363 KSL524363:KSZ524363 LCH524363:LCV524363 LMD524363:LMR524363 LVZ524363:LWN524363 MFV524363:MGJ524363 MPR524363:MQF524363 MZN524363:NAB524363 NJJ524363:NJX524363 NTF524363:NTT524363 ODB524363:ODP524363 OMX524363:ONL524363 OWT524363:OXH524363 PGP524363:PHD524363 PQL524363:PQZ524363 QAH524363:QAV524363 QKD524363:QKR524363 QTZ524363:QUN524363 RDV524363:REJ524363 RNR524363:ROF524363 RXN524363:RYB524363 SHJ524363:SHX524363 SRF524363:SRT524363 TBB524363:TBP524363 TKX524363:TLL524363 TUT524363:TVH524363 UEP524363:UFD524363 UOL524363:UOZ524363 UYH524363:UYV524363 VID524363:VIR524363 VRZ524363:VSN524363 WBV524363:WCJ524363 WLR524363:WMF524363 WVN524363:WWB524363 F589899:T589899 JB589899:JP589899 SX589899:TL589899 ACT589899:ADH589899 AMP589899:AND589899 AWL589899:AWZ589899 BGH589899:BGV589899 BQD589899:BQR589899 BZZ589899:CAN589899 CJV589899:CKJ589899 CTR589899:CUF589899 DDN589899:DEB589899 DNJ589899:DNX589899 DXF589899:DXT589899 EHB589899:EHP589899 EQX589899:ERL589899 FAT589899:FBH589899 FKP589899:FLD589899 FUL589899:FUZ589899 GEH589899:GEV589899 GOD589899:GOR589899 GXZ589899:GYN589899 HHV589899:HIJ589899 HRR589899:HSF589899 IBN589899:ICB589899 ILJ589899:ILX589899 IVF589899:IVT589899 JFB589899:JFP589899 JOX589899:JPL589899 JYT589899:JZH589899 KIP589899:KJD589899 KSL589899:KSZ589899 LCH589899:LCV589899 LMD589899:LMR589899 LVZ589899:LWN589899 MFV589899:MGJ589899 MPR589899:MQF589899 MZN589899:NAB589899 NJJ589899:NJX589899 NTF589899:NTT589899 ODB589899:ODP589899 OMX589899:ONL589899 OWT589899:OXH589899 PGP589899:PHD589899 PQL589899:PQZ589899 QAH589899:QAV589899 QKD589899:QKR589899 QTZ589899:QUN589899 RDV589899:REJ589899 RNR589899:ROF589899 RXN589899:RYB589899 SHJ589899:SHX589899 SRF589899:SRT589899 TBB589899:TBP589899 TKX589899:TLL589899 TUT589899:TVH589899 UEP589899:UFD589899 UOL589899:UOZ589899 UYH589899:UYV589899 VID589899:VIR589899 VRZ589899:VSN589899 WBV589899:WCJ589899 WLR589899:WMF589899 WVN589899:WWB589899 F655435:T655435 JB655435:JP655435 SX655435:TL655435 ACT655435:ADH655435 AMP655435:AND655435 AWL655435:AWZ655435 BGH655435:BGV655435 BQD655435:BQR655435 BZZ655435:CAN655435 CJV655435:CKJ655435 CTR655435:CUF655435 DDN655435:DEB655435 DNJ655435:DNX655435 DXF655435:DXT655435 EHB655435:EHP655435 EQX655435:ERL655435 FAT655435:FBH655435 FKP655435:FLD655435 FUL655435:FUZ655435 GEH655435:GEV655435 GOD655435:GOR655435 GXZ655435:GYN655435 HHV655435:HIJ655435 HRR655435:HSF655435 IBN655435:ICB655435 ILJ655435:ILX655435 IVF655435:IVT655435 JFB655435:JFP655435 JOX655435:JPL655435 JYT655435:JZH655435 KIP655435:KJD655435 KSL655435:KSZ655435 LCH655435:LCV655435 LMD655435:LMR655435 LVZ655435:LWN655435 MFV655435:MGJ655435 MPR655435:MQF655435 MZN655435:NAB655435 NJJ655435:NJX655435 NTF655435:NTT655435 ODB655435:ODP655435 OMX655435:ONL655435 OWT655435:OXH655435 PGP655435:PHD655435 PQL655435:PQZ655435 QAH655435:QAV655435 QKD655435:QKR655435 QTZ655435:QUN655435 RDV655435:REJ655435 RNR655435:ROF655435 RXN655435:RYB655435 SHJ655435:SHX655435 SRF655435:SRT655435 TBB655435:TBP655435 TKX655435:TLL655435 TUT655435:TVH655435 UEP655435:UFD655435 UOL655435:UOZ655435 UYH655435:UYV655435 VID655435:VIR655435 VRZ655435:VSN655435 WBV655435:WCJ655435 WLR655435:WMF655435 WVN655435:WWB655435 F720971:T720971 JB720971:JP720971 SX720971:TL720971 ACT720971:ADH720971 AMP720971:AND720971 AWL720971:AWZ720971 BGH720971:BGV720971 BQD720971:BQR720971 BZZ720971:CAN720971 CJV720971:CKJ720971 CTR720971:CUF720971 DDN720971:DEB720971 DNJ720971:DNX720971 DXF720971:DXT720971 EHB720971:EHP720971 EQX720971:ERL720971 FAT720971:FBH720971 FKP720971:FLD720971 FUL720971:FUZ720971 GEH720971:GEV720971 GOD720971:GOR720971 GXZ720971:GYN720971 HHV720971:HIJ720971 HRR720971:HSF720971 IBN720971:ICB720971 ILJ720971:ILX720971 IVF720971:IVT720971 JFB720971:JFP720971 JOX720971:JPL720971 JYT720971:JZH720971 KIP720971:KJD720971 KSL720971:KSZ720971 LCH720971:LCV720971 LMD720971:LMR720971 LVZ720971:LWN720971 MFV720971:MGJ720971 MPR720971:MQF720971 MZN720971:NAB720971 NJJ720971:NJX720971 NTF720971:NTT720971 ODB720971:ODP720971 OMX720971:ONL720971 OWT720971:OXH720971 PGP720971:PHD720971 PQL720971:PQZ720971 QAH720971:QAV720971 QKD720971:QKR720971 QTZ720971:QUN720971 RDV720971:REJ720971 RNR720971:ROF720971 RXN720971:RYB720971 SHJ720971:SHX720971 SRF720971:SRT720971 TBB720971:TBP720971 TKX720971:TLL720971 TUT720971:TVH720971 UEP720971:UFD720971 UOL720971:UOZ720971 UYH720971:UYV720971 VID720971:VIR720971 VRZ720971:VSN720971 WBV720971:WCJ720971 WLR720971:WMF720971 WVN720971:WWB720971 F786507:T786507 JB786507:JP786507 SX786507:TL786507 ACT786507:ADH786507 AMP786507:AND786507 AWL786507:AWZ786507 BGH786507:BGV786507 BQD786507:BQR786507 BZZ786507:CAN786507 CJV786507:CKJ786507 CTR786507:CUF786507 DDN786507:DEB786507 DNJ786507:DNX786507 DXF786507:DXT786507 EHB786507:EHP786507 EQX786507:ERL786507 FAT786507:FBH786507 FKP786507:FLD786507 FUL786507:FUZ786507 GEH786507:GEV786507 GOD786507:GOR786507 GXZ786507:GYN786507 HHV786507:HIJ786507 HRR786507:HSF786507 IBN786507:ICB786507 ILJ786507:ILX786507 IVF786507:IVT786507 JFB786507:JFP786507 JOX786507:JPL786507 JYT786507:JZH786507 KIP786507:KJD786507 KSL786507:KSZ786507 LCH786507:LCV786507 LMD786507:LMR786507 LVZ786507:LWN786507 MFV786507:MGJ786507 MPR786507:MQF786507 MZN786507:NAB786507 NJJ786507:NJX786507 NTF786507:NTT786507 ODB786507:ODP786507 OMX786507:ONL786507 OWT786507:OXH786507 PGP786507:PHD786507 PQL786507:PQZ786507 QAH786507:QAV786507 QKD786507:QKR786507 QTZ786507:QUN786507 RDV786507:REJ786507 RNR786507:ROF786507 RXN786507:RYB786507 SHJ786507:SHX786507 SRF786507:SRT786507 TBB786507:TBP786507 TKX786507:TLL786507 TUT786507:TVH786507 UEP786507:UFD786507 UOL786507:UOZ786507 UYH786507:UYV786507 VID786507:VIR786507 VRZ786507:VSN786507 WBV786507:WCJ786507 WLR786507:WMF786507 WVN786507:WWB786507 F852043:T852043 JB852043:JP852043 SX852043:TL852043 ACT852043:ADH852043 AMP852043:AND852043 AWL852043:AWZ852043 BGH852043:BGV852043 BQD852043:BQR852043 BZZ852043:CAN852043 CJV852043:CKJ852043 CTR852043:CUF852043 DDN852043:DEB852043 DNJ852043:DNX852043 DXF852043:DXT852043 EHB852043:EHP852043 EQX852043:ERL852043 FAT852043:FBH852043 FKP852043:FLD852043 FUL852043:FUZ852043 GEH852043:GEV852043 GOD852043:GOR852043 GXZ852043:GYN852043 HHV852043:HIJ852043 HRR852043:HSF852043 IBN852043:ICB852043 ILJ852043:ILX852043 IVF852043:IVT852043 JFB852043:JFP852043 JOX852043:JPL852043 JYT852043:JZH852043 KIP852043:KJD852043 KSL852043:KSZ852043 LCH852043:LCV852043 LMD852043:LMR852043 LVZ852043:LWN852043 MFV852043:MGJ852043 MPR852043:MQF852043 MZN852043:NAB852043 NJJ852043:NJX852043 NTF852043:NTT852043 ODB852043:ODP852043 OMX852043:ONL852043 OWT852043:OXH852043 PGP852043:PHD852043 PQL852043:PQZ852043 QAH852043:QAV852043 QKD852043:QKR852043 QTZ852043:QUN852043 RDV852043:REJ852043 RNR852043:ROF852043 RXN852043:RYB852043 SHJ852043:SHX852043 SRF852043:SRT852043 TBB852043:TBP852043 TKX852043:TLL852043 TUT852043:TVH852043 UEP852043:UFD852043 UOL852043:UOZ852043 UYH852043:UYV852043 VID852043:VIR852043 VRZ852043:VSN852043 WBV852043:WCJ852043 WLR852043:WMF852043 WVN852043:WWB852043 F917579:T917579 JB917579:JP917579 SX917579:TL917579 ACT917579:ADH917579 AMP917579:AND917579 AWL917579:AWZ917579 BGH917579:BGV917579 BQD917579:BQR917579 BZZ917579:CAN917579 CJV917579:CKJ917579 CTR917579:CUF917579 DDN917579:DEB917579 DNJ917579:DNX917579 DXF917579:DXT917579 EHB917579:EHP917579 EQX917579:ERL917579 FAT917579:FBH917579 FKP917579:FLD917579 FUL917579:FUZ917579 GEH917579:GEV917579 GOD917579:GOR917579 GXZ917579:GYN917579 HHV917579:HIJ917579 HRR917579:HSF917579 IBN917579:ICB917579 ILJ917579:ILX917579 IVF917579:IVT917579 JFB917579:JFP917579 JOX917579:JPL917579 JYT917579:JZH917579 KIP917579:KJD917579 KSL917579:KSZ917579 LCH917579:LCV917579 LMD917579:LMR917579 LVZ917579:LWN917579 MFV917579:MGJ917579 MPR917579:MQF917579 MZN917579:NAB917579 NJJ917579:NJX917579 NTF917579:NTT917579 ODB917579:ODP917579 OMX917579:ONL917579 OWT917579:OXH917579 PGP917579:PHD917579 PQL917579:PQZ917579 QAH917579:QAV917579 QKD917579:QKR917579 QTZ917579:QUN917579 RDV917579:REJ917579 RNR917579:ROF917579 RXN917579:RYB917579 SHJ917579:SHX917579 SRF917579:SRT917579 TBB917579:TBP917579 TKX917579:TLL917579 TUT917579:TVH917579 UEP917579:UFD917579 UOL917579:UOZ917579 UYH917579:UYV917579 VID917579:VIR917579 VRZ917579:VSN917579 WBV917579:WCJ917579 WLR917579:WMF917579 WVN917579:WWB917579 F983115:T983115 JB983115:JP983115 SX983115:TL983115 ACT983115:ADH983115 AMP983115:AND983115 AWL983115:AWZ983115 BGH983115:BGV983115 BQD983115:BQR983115 BZZ983115:CAN983115 CJV983115:CKJ983115 CTR983115:CUF983115 DDN983115:DEB983115 DNJ983115:DNX983115 DXF983115:DXT983115 EHB983115:EHP983115 EQX983115:ERL983115 FAT983115:FBH983115 FKP983115:FLD983115 FUL983115:FUZ983115 GEH983115:GEV983115 GOD983115:GOR983115 GXZ983115:GYN983115 HHV983115:HIJ983115 HRR983115:HSF983115 IBN983115:ICB983115 ILJ983115:ILX983115 IVF983115:IVT983115 JFB983115:JFP983115 JOX983115:JPL983115 JYT983115:JZH983115 KIP983115:KJD983115 KSL983115:KSZ983115 LCH983115:LCV983115 LMD983115:LMR983115 LVZ983115:LWN983115 MFV983115:MGJ983115 MPR983115:MQF983115 MZN983115:NAB983115 NJJ983115:NJX983115 NTF983115:NTT983115 ODB983115:ODP983115 OMX983115:ONL983115 OWT983115:OXH983115 PGP983115:PHD983115 PQL983115:PQZ983115 QAH983115:QAV983115 QKD983115:QKR983115 QTZ983115:QUN983115 RDV983115:REJ983115 RNR983115:ROF983115 RXN983115:RYB983115 SHJ983115:SHX983115 SRF983115:SRT983115 TBB983115:TBP983115 TKX983115:TLL983115 TUT983115:TVH983115 UEP983115:UFD983115 UOL983115:UOZ983115 UYH983115:UYV983115 VID983115:VIR983115 VRZ983115:VSN983115 WBV983115:WCJ983115 WLR983115:WMF983115 WVN983115:WWB983115">
@@ -5237,39 +5483,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="93"/>
+    <col min="3" max="9" width="9.140625" style="92"/>
     <col min="11" max="11" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="L1" s="161" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="L1" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
@@ -5277,404 +5523,404 @@
       <c r="T1" s="28"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
       <c r="L3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="159" t="s">
+      <c r="M3" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="159" t="s">
+      <c r="N3" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="159" t="s">
+      <c r="O3" s="161" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="162"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="90" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="160"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:20" ht="30">
       <c r="A5" s="31"/>
       <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="31"/>
-      <c r="L5" s="89">
+      <c r="L5" s="88">
         <v>1</v>
       </c>
-      <c r="M5" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="O5" s="110" t="s">
+      <c r="M5" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="109" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30">
       <c r="A6" s="29"/>
-      <c r="B6" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="95"/>
-      <c r="L6" s="89">
+      <c r="I6" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="L6" s="88">
         <v>2</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" s="111" t="s">
+      <c r="O6" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30">
       <c r="A7" s="29"/>
-      <c r="B7" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="95"/>
-      <c r="L7" s="89">
+      <c r="I7" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="L7" s="88">
         <v>3</v>
       </c>
-      <c r="M7" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" s="111" t="s">
+      <c r="M7" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="29"/>
-      <c r="B8" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="95"/>
-      <c r="L8" s="89">
+      <c r="I8" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="94"/>
+      <c r="L8" s="88">
         <v>4</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="29"/>
-      <c r="B9" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="95"/>
-      <c r="L9" s="89">
+      <c r="I9" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="94"/>
+      <c r="L9" s="88">
         <v>5</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="29"/>
-      <c r="B10" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="95"/>
-      <c r="L10" s="89">
+      <c r="I10" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="L10" s="88">
         <v>6</v>
       </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="29"/>
-      <c r="B11" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="L11" s="89">
+      <c r="I11" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="94"/>
+      <c r="L11" s="88">
         <v>7</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="29"/>
-      <c r="B12" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="L12" s="89">
+      <c r="J12" s="94"/>
+      <c r="L12" s="88">
         <v>8</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="29"/>
-      <c r="B13" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="94" t="s">
+      <c r="H13" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="L13" s="89">
+      <c r="J13" s="94"/>
+      <c r="L13" s="88">
         <v>9</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="31"/>
       <c r="B14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="31"/>
-      <c r="L14" s="89">
+      <c r="L14" s="88">
         <v>15</v>
       </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="29"/>
-      <c r="B15" s="87" t="s">
-        <v>151</v>
+      <c r="B15" s="86" t="s">
+        <v>149</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -5683,71 +5929,71 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="29"/>
-      <c r="L15" s="89">
+      <c r="L15" s="88">
         <v>16</v>
       </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="29"/>
-      <c r="B16" s="87" t="s">
-        <v>152</v>
+      <c r="B16" s="86" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="29"/>
-      <c r="L16" s="89">
+      <c r="L16" s="88">
         <v>17</v>
       </c>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="29"/>
-      <c r="B17" s="87" t="s">
-        <v>153</v>
+      <c r="B17" s="86" t="s">
+        <v>151</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="29"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="29"/>
-      <c r="B18" s="87" t="s">
-        <v>154</v>
+      <c r="B18" s="86" t="s">
+        <v>152</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -5757,15 +6003,15 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="29"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="29"/>
-      <c r="B19" s="87" t="s">
-        <v>155</v>
+      <c r="B19" s="86" t="s">
+        <v>153</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -5773,22 +6019,22 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" s="29"/>
-      <c r="L19" s="89">
+      <c r="L19" s="88">
         <v>18</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="29"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -5797,16 +6043,16 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="29"/>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="29"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -5837,16 +6083,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="12" style="37" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="37" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="37" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="37" customWidth="1"/>
@@ -5865,7 +6111,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34" t="str">
         <f>"Pass: "&amp;COUNTIF($G$6:$G$1011,"Pass")</f>
-        <v>Pass: 0</v>
+        <v>Pass: 1</v>
       </c>
       <c r="E1" s="35" t="str">
         <f>"Untested: "&amp;COUNTIF($G$6:$G$1011,"Untest")</f>
@@ -5897,13 +6143,13 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
-      <c r="D3" s="34" t="e">
+      <c r="D3" s="34" t="str">
         <f>"Percent Complete: "&amp;ROUND((COUNTIF($G$6:$G$1011,"Pass")*100)/((COUNTA($A$6:$A$1011)*5)-COUNTIF($G$5:$G$1021,"N/A")),2)&amp;"%"</f>
-        <v>#DIV/0!</v>
+        <v>Percent Complete: 20%</v>
       </c>
       <c r="E3" s="40" t="str">
         <f>"Number of cases: "&amp;(COUNTA($A$5:$A$1011))</f>
-        <v>Number of cases: 0</v>
+        <v>Number of cases: 2</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3"/>
@@ -5916,48 +6162,80 @@
         <v>48</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+    </row>
+    <row r="5" spans="1:9" ht="150.75" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>162</v>
+      </c>
       <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="G5" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="150.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="165" t="s">
+        <v>171</v>
+      </c>
       <c r="F6" s="46"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="48"/>
@@ -5967,7 +6245,7 @@
       <c r="E7" s="49"/>
       <c r="F7" s="46"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9">
@@ -6234,7 +6512,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="50"/>
-      <c r="B32" s="163"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="51"/>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
@@ -6244,7 +6522,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="50"/>
-      <c r="B33" s="164"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="50"/>
       <c r="D33" s="51"/>
       <c r="E33" s="50"/>
@@ -6254,7 +6532,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="50"/>
-      <c r="B34" s="164"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="50"/>
@@ -6264,7 +6542,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="50"/>
-      <c r="B35" s="164"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="50"/>
@@ -6274,7 +6552,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="50"/>
-      <c r="B36" s="164"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="50"/>
       <c r="D36" s="51"/>
       <c r="E36" s="50"/>
@@ -6284,7 +6562,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="50"/>
-      <c r="B37" s="165"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="50"/>
@@ -6306,6 +6584,7 @@
     <hyperlink ref="B1" location="BugList!A1" display="To Buglist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>